--- a/data/xlsx/Params.xlsx
+++ b/data/xlsx/Params.xlsx
@@ -416,7 +416,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H380"/>
+  <dimension ref="A1:H385"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
@@ -3983,25 +3983,25 @@
       <c r="A129" t="inlineStr"/>
       <c r="B129" t="inlineStr">
         <is>
-          <t>巻き戻し最大回数ノーマル</t>
+          <t>シルバーカード割引率</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>Max rewinds Normal</t>
+          <t>Silver Card discount rate</t>
         </is>
       </c>
       <c r="D129" t="n">
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="E129" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="F129" t="n">
-        <v>99</v>
+        <v>1</v>
       </c>
       <c r="G129" t="n">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="H129" t="inlineStr"/>
     </row>
@@ -4009,16 +4009,16 @@
       <c r="A130" t="inlineStr"/>
       <c r="B130" t="inlineStr">
         <is>
-          <t>巻き戻し最大回数ハード</t>
+          <t>巻き戻し最大回数ノーマル</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>Max rewinds Hard</t>
+          <t>Max rewinds Normal</t>
         </is>
       </c>
       <c r="D130" t="n">
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="E130" t="n">
         <v>-1</v>
@@ -4035,12 +4035,12 @@
       <c r="A131" t="inlineStr"/>
       <c r="B131" t="inlineStr">
         <is>
-          <t>巻き戻し最大回数ルナティック</t>
+          <t>巻き戻し最大回数ハード</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>Max rewinds Lunatic</t>
+          <t>Max rewinds Hard</t>
         </is>
       </c>
       <c r="D131" t="n">
@@ -4061,22 +4061,22 @@
       <c r="A132" t="inlineStr"/>
       <c r="B132" t="inlineStr">
         <is>
-          <t>巻き戻し最大項目数</t>
+          <t>巻き戻し最大回数ルナティック</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>Max rewind items</t>
+          <t>Max rewinds Lunatic</t>
         </is>
       </c>
       <c r="D132" t="n">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="E132" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="F132" t="n">
-        <v>10000</v>
+        <v>99</v>
       </c>
       <c r="G132" t="n">
         <v>1</v>
@@ -4087,22 +4087,22 @@
       <c r="A133" t="inlineStr"/>
       <c r="B133" t="inlineStr">
         <is>
-          <t>リレープレイ中有効期間</t>
+          <t>巻き戻し最大項目数</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>リレープレイ中有効期間</t>
+          <t>Max rewind items</t>
         </is>
       </c>
       <c r="D133" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="E133" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F133" t="n">
-        <v>720</v>
+        <v>10000</v>
       </c>
       <c r="G133" t="n">
         <v>1</v>
@@ -4113,22 +4113,22 @@
       <c r="A134" t="inlineStr"/>
       <c r="B134" t="inlineStr">
         <is>
-          <t>リレー個人賞最小数</t>
+          <t>リレープレイ中有効期間</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>リレー個人賞最小数</t>
+          <t>リレープレイ中有効期間</t>
         </is>
       </c>
       <c r="D134" t="n">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="E134" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F134" t="n">
-        <v>99</v>
+        <v>720</v>
       </c>
       <c r="G134" t="n">
         <v>1</v>
@@ -4139,16 +4139,16 @@
       <c r="A135" t="inlineStr"/>
       <c r="B135" t="inlineStr">
         <is>
-          <t>リレー個人賞最大数</t>
+          <t>リレー個人賞最小数</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>リレー個人賞最大数</t>
+          <t>リレー個人賞最小数</t>
         </is>
       </c>
       <c r="D135" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E135" t="n">
         <v>1</v>
@@ -4165,22 +4165,22 @@
       <c r="A136" t="inlineStr"/>
       <c r="B136" t="inlineStr">
         <is>
-          <t>リレーチケット入手間隔</t>
+          <t>リレー個人賞最大数</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>リレーチケット入手間隔</t>
+          <t>リレー個人賞最大数</t>
         </is>
       </c>
       <c r="D136" t="n">
-        <v>1440</v>
+        <v>5</v>
       </c>
       <c r="E136" t="n">
         <v>1</v>
       </c>
       <c r="F136" t="n">
-        <v>1440</v>
+        <v>99</v>
       </c>
       <c r="G136" t="n">
         <v>1</v>
@@ -4191,22 +4191,22 @@
       <c r="A137" t="inlineStr"/>
       <c r="B137" t="inlineStr">
         <is>
-          <t>やり込みレベル最小値</t>
+          <t>リレーチケット入手間隔</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>やり込みレベル最小値</t>
+          <t>リレーチケット入手間隔</t>
         </is>
       </c>
       <c r="D137" t="n">
-        <v>1</v>
+        <v>1440</v>
       </c>
       <c r="E137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F137" t="n">
-        <v>1</v>
+        <v>1440</v>
       </c>
       <c r="G137" t="n">
         <v>1</v>
@@ -4217,22 +4217,22 @@
       <c r="A138" t="inlineStr"/>
       <c r="B138" t="inlineStr">
         <is>
-          <t>やり込みレベル最大値</t>
+          <t>やり込みレベル最小値</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>やり込みレベル最大値</t>
+          <t>やり込みレベル最小値</t>
         </is>
       </c>
       <c r="D138" t="n">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="E138" t="n">
         <v>0</v>
       </c>
       <c r="F138" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="G138" t="n">
         <v>1</v>
@@ -4243,16 +4243,16 @@
       <c r="A139" t="inlineStr"/>
       <c r="B139" t="inlineStr">
         <is>
-          <t>やり込みレベルクリア後最大値</t>
+          <t>やり込みレベル最大値</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>やり込みレベルクリア後最大値</t>
+          <t>やり込みレベル最大値</t>
         </is>
       </c>
       <c r="D139" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="E139" t="n">
         <v>0</v>
@@ -4269,16 +4269,16 @@
       <c r="A140" t="inlineStr"/>
       <c r="B140" t="inlineStr">
         <is>
-          <t>やり込みレベル加算値</t>
+          <t>やり込みレベルクリア後最大値</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>やり込みレベル加算値</t>
+          <t>やり込みレベルクリア後最大値</t>
         </is>
       </c>
       <c r="D140" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E140" t="n">
         <v>0</v>
@@ -4295,19 +4295,19 @@
       <c r="A141" t="inlineStr"/>
       <c r="B141" t="inlineStr">
         <is>
-          <t>やり込みレベルハード</t>
+          <t>やり込みレベル加算値</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>やり込みレベルハード</t>
+          <t>やり込みレベル加算値</t>
         </is>
       </c>
       <c r="D141" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="E141" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F141" t="n">
         <v>100</v>
@@ -4321,16 +4321,16 @@
       <c r="A142" t="inlineStr"/>
       <c r="B142" t="inlineStr">
         <is>
-          <t>やり込みレベルルナティック</t>
+          <t>やり込みレベルハード</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>やり込みレベルルナティック</t>
+          <t>やり込みレベルハード</t>
         </is>
       </c>
       <c r="D142" t="n">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="E142" t="n">
         <v>1</v>
@@ -4347,16 +4347,16 @@
       <c r="A143" t="inlineStr"/>
       <c r="B143" t="inlineStr">
         <is>
-          <t>やり込み報酬最小</t>
+          <t>やり込みレベルルナティック</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>やり込み報酬最小</t>
+          <t>やり込みレベルルナティック</t>
         </is>
       </c>
       <c r="D143" t="n">
-        <v>1</v>
+        <v>41</v>
       </c>
       <c r="E143" t="n">
         <v>1</v>
@@ -4373,16 +4373,16 @@
       <c r="A144" t="inlineStr"/>
       <c r="B144" t="inlineStr">
         <is>
-          <t>やり込み報酬最大</t>
+          <t>やり込み報酬最小</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>やり込み報酬最大</t>
+          <t>やり込み報酬最小</t>
         </is>
       </c>
       <c r="D144" t="n">
-        <v>900</v>
+        <v>1</v>
       </c>
       <c r="E144" t="n">
         <v>1</v>
@@ -4399,22 +4399,22 @@
       <c r="A145" t="inlineStr"/>
       <c r="B145" t="inlineStr">
         <is>
-          <t>撃破マス最大数</t>
+          <t>やり込み報酬最大</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>撃破マス最大数</t>
+          <t>やり込み報酬最大</t>
         </is>
       </c>
       <c r="D145" t="n">
-        <v>3</v>
+        <v>900</v>
       </c>
       <c r="E145" t="n">
         <v>1</v>
       </c>
       <c r="F145" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="G145" t="n">
         <v>1</v>
@@ -4425,16 +4425,16 @@
       <c r="A146" t="inlineStr"/>
       <c r="B146" t="inlineStr">
         <is>
-          <t>被撃破マス最大数</t>
+          <t>撃破マス最大数</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>被撃破マス最大数</t>
+          <t>撃破マス最大数</t>
         </is>
       </c>
       <c r="D146" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E146" t="n">
         <v>1</v>
@@ -4451,22 +4451,22 @@
       <c r="A147" t="inlineStr"/>
       <c r="B147" t="inlineStr">
         <is>
-          <t>amiibo紋章士支援A達成人数</t>
+          <t>被撃破マス最大数</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>amiibo紋章士支援A達成人数</t>
+          <t>被撃破マス最大数</t>
         </is>
       </c>
       <c r="D147" t="n">
-        <v>36</v>
+        <v>5</v>
       </c>
       <c r="E147" t="n">
         <v>1</v>
       </c>
       <c r="F147" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="G147" t="n">
         <v>1</v>
@@ -4477,19 +4477,19 @@
       <c r="A148" t="inlineStr"/>
       <c r="B148" t="inlineStr">
         <is>
-          <t>遭遇戦クリア後報酬経験値</t>
+          <t>amiibo紋章士支援A達成人数</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>遭遇戦クリア後報酬経験値</t>
+          <t>amiibo紋章士支援A達成人数</t>
         </is>
       </c>
       <c r="D148" t="n">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="E148" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F148" t="n">
         <v>100</v>
@@ -4503,25 +4503,25 @@
       <c r="A149" t="inlineStr"/>
       <c r="B149" t="inlineStr">
         <is>
-          <t>遭遇戦クリア後報酬お金</t>
+          <t>遭遇戦クリア後報酬経験値</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>遭遇戦クリア後報酬お金</t>
+          <t>遭遇戦クリア後報酬経験値</t>
         </is>
       </c>
       <c r="D149" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="E149" t="n">
         <v>0</v>
       </c>
       <c r="F149" t="n">
-        <v>10000</v>
+        <v>100</v>
       </c>
       <c r="G149" t="n">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="H149" t="inlineStr"/>
     </row>
@@ -4529,25 +4529,25 @@
       <c r="A150" t="inlineStr"/>
       <c r="B150" t="inlineStr">
         <is>
-          <t>&lt;ゲームルール</t>
+          <t>遭遇戦クリア後報酬お金</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>GameRule</t>
+          <t>遭遇戦クリア後報酬お金</t>
         </is>
       </c>
       <c r="D150" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="E150" t="n">
         <v>0</v>
       </c>
       <c r="F150" t="n">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="G150" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="H150" t="inlineStr"/>
     </row>
@@ -4555,22 +4555,22 @@
       <c r="A151" t="inlineStr"/>
       <c r="B151" t="inlineStr">
         <is>
-          <t>&gt;コンバット</t>
+          <t>神竜の章投資レベル</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>Combat</t>
+          <t>神竜の章投資レベル</t>
         </is>
       </c>
       <c r="D151" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E151" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F151" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G151" t="n">
         <v>1</v>
@@ -4581,25 +4581,25 @@
       <c r="A152" t="inlineStr"/>
       <c r="B152" t="inlineStr">
         <is>
-          <t>キャラ高さ：歩兵</t>
+          <t>&lt;ゲームルール</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>Character Height: Walk</t>
+          <t>GameRule</t>
         </is>
       </c>
       <c r="D152" t="n">
-        <v>1.1</v>
+        <v>0</v>
       </c>
       <c r="E152" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F152" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G152" t="n">
-        <v>0.01</v>
+        <v>1</v>
       </c>
       <c r="H152" t="inlineStr"/>
     </row>
@@ -4607,25 +4607,25 @@
       <c r="A153" t="inlineStr"/>
       <c r="B153" t="inlineStr">
         <is>
-          <t>キャラ高さ：騎馬</t>
+          <t>&gt;コンバット</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>Character Height: Horse</t>
+          <t>Combat</t>
         </is>
       </c>
       <c r="D153" t="n">
-        <v>1.9</v>
+        <v>0</v>
       </c>
       <c r="E153" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F153" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G153" t="n">
-        <v>0.01</v>
+        <v>1</v>
       </c>
       <c r="H153" t="inlineStr"/>
     </row>
@@ -4633,12 +4633,12 @@
       <c r="A154" t="inlineStr"/>
       <c r="B154" t="inlineStr">
         <is>
-          <t>キャラ高さ：狼</t>
+          <t>キャラ高さ：歩兵</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>Character Height: Wolf</t>
+          <t>Character Height: Walk</t>
         </is>
       </c>
       <c r="D154" t="n">
@@ -4659,16 +4659,16 @@
       <c r="A155" t="inlineStr"/>
       <c r="B155" t="inlineStr">
         <is>
-          <t>キャラ高さ：ペガサス</t>
+          <t>キャラ高さ：騎馬</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>Character Height: Pegasus</t>
+          <t>Character Height: Horse</t>
         </is>
       </c>
       <c r="D155" t="n">
-        <v>2.3</v>
+        <v>1.9</v>
       </c>
       <c r="E155" t="n">
         <v>0.5</v>
@@ -4685,16 +4685,16 @@
       <c r="A156" t="inlineStr"/>
       <c r="B156" t="inlineStr">
         <is>
-          <t>キャラ高さ：ドラゴン</t>
+          <t>キャラ高さ：狼</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>Character Height: Dragon</t>
+          <t>Character Height: Wolf</t>
         </is>
       </c>
       <c r="D156" t="n">
-        <v>2.3</v>
+        <v>1.1</v>
       </c>
       <c r="E156" t="n">
         <v>0.5</v>
@@ -4711,12 +4711,12 @@
       <c r="A157" t="inlineStr"/>
       <c r="B157" t="inlineStr">
         <is>
-          <t>キャラ高さ：グリフォン</t>
+          <t>キャラ高さ：ペガサス</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>Character Height: Griffon</t>
+          <t>Character Height: Pegasus</t>
         </is>
       </c>
       <c r="D157" t="n">
@@ -4737,16 +4737,16 @@
       <c r="A158" t="inlineStr"/>
       <c r="B158" t="inlineStr">
         <is>
-          <t>キャラ高さ：エンゲージ</t>
+          <t>キャラ高さ：ドラゴン</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>Character Height: Engage</t>
+          <t>Character Height: Dragon</t>
         </is>
       </c>
       <c r="D158" t="n">
-        <v>1.2</v>
+        <v>2.3</v>
       </c>
       <c r="E158" t="n">
         <v>0.5</v>
@@ -4763,16 +4763,16 @@
       <c r="A159" t="inlineStr"/>
       <c r="B159" t="inlineStr">
         <is>
-          <t>キャラ高さ：ソンブル(人)</t>
+          <t>キャラ高さ：グリフォン</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>Character Height: Sombron Human</t>
+          <t>Character Height: Griffon</t>
         </is>
       </c>
       <c r="D159" t="n">
-        <v>1.6</v>
+        <v>2.3</v>
       </c>
       <c r="E159" t="n">
         <v>0.5</v>
@@ -4789,16 +4789,16 @@
       <c r="A160" t="inlineStr"/>
       <c r="B160" t="inlineStr">
         <is>
-          <t>キャラ高さ：ソンブル(竜)</t>
+          <t>キャラ高さ：エンゲージ</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>Character Height: Sombron Dragon</t>
+          <t>Character Height: Engage</t>
         </is>
       </c>
       <c r="D160" t="n">
-        <v>1.1</v>
+        <v>1.2</v>
       </c>
       <c r="E160" t="n">
         <v>0.5</v>
@@ -4815,25 +4815,25 @@
       <c r="A161" t="inlineStr"/>
       <c r="B161" t="inlineStr">
         <is>
-          <t>レイヤ変更閾値</t>
+          <t>キャラ高さ：エンゲージ(チキ)</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>Back Ground Change Rate</t>
+          <t>Character Height: Engage Tiki</t>
         </is>
       </c>
       <c r="D161" t="n">
-        <v>0.7</v>
+        <v>2.5</v>
       </c>
       <c r="E161" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F161" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G161" t="n">
-        <v>0.05</v>
+        <v>0.01</v>
       </c>
       <c r="H161" t="inlineStr"/>
     </row>
@@ -4841,85 +4841,77 @@
       <c r="A162" t="inlineStr"/>
       <c r="B162" t="inlineStr">
         <is>
-          <t>コンバット用アセット事前読込</t>
+          <t>キャラ高さ：ソンブル(人)</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>Pre-load combat assets</t>
+          <t>Character Height: Sombron Human</t>
         </is>
       </c>
       <c r="D162" t="n">
-        <v>1</v>
+        <v>1.6</v>
       </c>
       <c r="E162" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F162" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G162" t="n">
-        <v>1</v>
-      </c>
-      <c r="H162" t="inlineStr">
-        <is>
-          <t>OFF,ON</t>
-        </is>
-      </c>
+        <v>0.01</v>
+      </c>
+      <c r="H162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr"/>
       <c r="B163" t="inlineStr">
         <is>
-          <t>コンバット読込方式</t>
+          <t>キャラ高さ：ソンブル(竜)</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>Combat loading method</t>
+          <t>Character Height: Sombron Dragon</t>
         </is>
       </c>
       <c r="D163" t="n">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="E163" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F163" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G163" t="n">
-        <v>1</v>
-      </c>
-      <c r="H163" t="inlineStr">
-        <is>
-          <t>読込遅・ラグ無,読込速・ラグ有</t>
-        </is>
-      </c>
+        <v>0.01</v>
+      </c>
+      <c r="H163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr"/>
       <c r="B164" t="inlineStr">
         <is>
-          <t>カメラ透過範囲</t>
+          <t>キャラ高さ：幻影狼</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>Camera transmission range</t>
+          <t>Character Height: Corrupt Wolf</t>
         </is>
       </c>
       <c r="D164" t="n">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="E164" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F164" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="G164" t="n">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="H164" t="inlineStr"/>
     </row>
@@ -4927,25 +4919,25 @@
       <c r="A165" t="inlineStr"/>
       <c r="B165" t="inlineStr">
         <is>
-          <t>LookAt軌跡描画</t>
+          <t>キャラ高さ：幻影飛竜</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>LookAt trajectory drawing</t>
+          <t>Character Height: Pahtom Dragon</t>
         </is>
       </c>
       <c r="D165" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="E165" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F165" t="n">
-        <v>1000</v>
+        <v>5</v>
       </c>
       <c r="G165" t="n">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="H165" t="inlineStr"/>
     </row>
@@ -4953,25 +4945,25 @@
       <c r="A166" t="inlineStr"/>
       <c r="B166" t="inlineStr">
         <is>
-          <t>ユニット詳細:自キャラ配置方向</t>
+          <t>レイヤ変更閾値</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>Unit Detail: Player Locate Direction</t>
+          <t>Back Ground Change Rate</t>
         </is>
       </c>
       <c r="D166" t="n">
-        <v>55</v>
+        <v>0.7</v>
       </c>
       <c r="E166" t="n">
-        <v>-180</v>
+        <v>0</v>
       </c>
       <c r="F166" t="n">
-        <v>180</v>
+        <v>1</v>
       </c>
       <c r="G166" t="n">
-        <v>1</v>
+        <v>0.05</v>
       </c>
       <c r="H166" t="inlineStr"/>
     </row>
@@ -4979,77 +4971,85 @@
       <c r="A167" t="inlineStr"/>
       <c r="B167" t="inlineStr">
         <is>
-          <t>ユニット詳細:敵キャラ配置方向</t>
+          <t>コンバット用アセット事前読込</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>Unit Detail: Enemy Locate Direction</t>
+          <t>Pre-load combat assets</t>
         </is>
       </c>
       <c r="D167" t="n">
-        <v>55</v>
+        <v>1</v>
       </c>
       <c r="E167" t="n">
-        <v>-180</v>
+        <v>0</v>
       </c>
       <c r="F167" t="n">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="G167" t="n">
         <v>1</v>
       </c>
-      <c r="H167" t="inlineStr"/>
+      <c r="H167" t="inlineStr">
+        <is>
+          <t>OFF,ON</t>
+        </is>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr"/>
       <c r="B168" t="inlineStr">
         <is>
-          <t>ユニット詳細:自キャラカメラ角度</t>
+          <t>コンバット読込方式</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>Unit Detail: Player Camera Direction</t>
+          <t>Combat loading method</t>
         </is>
       </c>
       <c r="D168" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="E168" t="n">
-        <v>-180</v>
+        <v>0</v>
       </c>
       <c r="F168" t="n">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="G168" t="n">
         <v>1</v>
       </c>
-      <c r="H168" t="inlineStr"/>
+      <c r="H168" t="inlineStr">
+        <is>
+          <t>読込遅・ラグ無,読込速・ラグ有</t>
+        </is>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr"/>
       <c r="B169" t="inlineStr">
         <is>
-          <t>ユニット詳細:敵キャラカメラ角度</t>
+          <t>カメラ透過範囲</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>Unit Detail: Enemy Camera Direction</t>
+          <t>Camera transmission range</t>
         </is>
       </c>
       <c r="D169" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="E169" t="n">
-        <v>-180</v>
+        <v>0</v>
       </c>
       <c r="F169" t="n">
-        <v>180</v>
+        <v>10</v>
       </c>
       <c r="G169" t="n">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="H169" t="inlineStr"/>
     </row>
@@ -5057,12 +5057,12 @@
       <c r="A170" t="inlineStr"/>
       <c r="B170" t="inlineStr">
         <is>
-          <t>OP兵種紹介パターン</t>
+          <t>LookAt軌跡描画</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>Job Introduction Pattern</t>
+          <t>LookAt trajectory drawing</t>
         </is>
       </c>
       <c r="D170" t="n">
@@ -5072,40 +5072,36 @@
         <v>0</v>
       </c>
       <c r="F170" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="G170" t="n">
         <v>1</v>
       </c>
-      <c r="H170" t="inlineStr">
-        <is>
-          <t>OFF,M000,M001,M009,M013,M015,M019,M022,Debug</t>
-        </is>
-      </c>
+      <c r="H170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr"/>
       <c r="B171" t="inlineStr">
         <is>
-          <t>ラスボスエンゲ技サイズ</t>
+          <t>ユニット詳細:自キャラ配置方向</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>Final Boss Scale in SpecialAttack</t>
+          <t>Unit Detail: Player Locate Direction</t>
         </is>
       </c>
       <c r="D171" t="n">
-        <v>0.5</v>
+        <v>55</v>
       </c>
       <c r="E171" t="n">
-        <v>0.1</v>
+        <v>-180</v>
       </c>
       <c r="F171" t="n">
-        <v>1</v>
+        <v>180</v>
       </c>
       <c r="G171" t="n">
-        <v>0.01</v>
+        <v>1</v>
       </c>
       <c r="H171" t="inlineStr"/>
     </row>
@@ -5113,25 +5109,25 @@
       <c r="A172" t="inlineStr"/>
       <c r="B172" t="inlineStr">
         <is>
-          <t>パーツ破壊力</t>
+          <t>ユニット詳細:敵キャラ配置方向</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>Explosion Force</t>
+          <t>Unit Detail: Enemy Locate Direction</t>
         </is>
       </c>
       <c r="D172" t="n">
-        <v>1</v>
+        <v>55</v>
       </c>
       <c r="E172" t="n">
-        <v>0</v>
+        <v>-180</v>
       </c>
       <c r="F172" t="n">
-        <v>10</v>
+        <v>180</v>
       </c>
       <c r="G172" t="n">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="H172" t="inlineStr"/>
     </row>
@@ -5139,22 +5135,22 @@
       <c r="A173" t="inlineStr"/>
       <c r="B173" t="inlineStr">
         <is>
-          <t>&lt;コンバット</t>
+          <t>ユニット詳細:自キャラカメラ角度</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>Game debug</t>
+          <t>Unit Detail: Player Camera Direction</t>
         </is>
       </c>
       <c r="D173" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="E173" t="n">
-        <v>0</v>
+        <v>-180</v>
       </c>
       <c r="F173" t="n">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="G173" t="n">
         <v>1</v>
@@ -5165,22 +5161,22 @@
       <c r="A174" t="inlineStr"/>
       <c r="B174" t="inlineStr">
         <is>
-          <t>&gt;マップデバッグ</t>
+          <t>ユニット詳細:敵キャラカメラ角度</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>MapDebug</t>
+          <t>Unit Detail: Enemy Camera Direction</t>
         </is>
       </c>
       <c r="D174" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="E174" t="n">
-        <v>0</v>
+        <v>-180</v>
       </c>
       <c r="F174" t="n">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="G174" t="n">
         <v>1</v>
@@ -5191,12 +5187,12 @@
       <c r="A175" t="inlineStr"/>
       <c r="B175" t="inlineStr">
         <is>
-          <t>簡易マップ表示</t>
+          <t>OP兵種紹介パターン</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>Simple map display</t>
+          <t>Job Introduction Pattern</t>
         </is>
       </c>
       <c r="D175" t="n">
@@ -5213,7 +5209,7 @@
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>OFF,ON</t>
+          <t>OFF,M000,M001,M009,M013,M015,M019,M022,Debug</t>
         </is>
       </c>
     </row>
@@ -5221,25 +5217,25 @@
       <c r="A176" t="inlineStr"/>
       <c r="B176" t="inlineStr">
         <is>
-          <t>地形属性の透明度</t>
+          <t>ラスボスエンゲ技サイズ</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>Terrain attribute transparency level</t>
+          <t>Final Boss Scale in SpecialAttack</t>
         </is>
       </c>
       <c r="D176" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="E176" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="F176" t="n">
         <v>1</v>
       </c>
       <c r="G176" t="n">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="H176" t="inlineStr"/>
     </row>
@@ -5247,22 +5243,22 @@
       <c r="A177" t="inlineStr"/>
       <c r="B177" t="inlineStr">
         <is>
-          <t>地形属性の明るさ</t>
+          <t>パーツ破壊力</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>Terrain attribute brightness</t>
+          <t>Explosion Force</t>
         </is>
       </c>
       <c r="D177" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="E177" t="n">
         <v>0</v>
       </c>
       <c r="F177" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G177" t="n">
         <v>0.1</v>
@@ -5273,12 +5269,12 @@
       <c r="A178" t="inlineStr"/>
       <c r="B178" t="inlineStr">
         <is>
-          <t>イベントの透明度</t>
+          <t>&lt;コンバット</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>Event trasparency level</t>
+          <t>Game debug</t>
         </is>
       </c>
       <c r="D178" t="n">
@@ -5288,10 +5284,10 @@
         <v>0</v>
       </c>
       <c r="F178" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G178" t="n">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="H178" t="inlineStr"/>
     </row>
@@ -5299,25 +5295,25 @@
       <c r="A179" t="inlineStr"/>
       <c r="B179" t="inlineStr">
         <is>
-          <t>マップパネルの透明度</t>
+          <t>&gt;マップデバッグ</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>Map panel transparency level</t>
+          <t>MapDebug</t>
         </is>
       </c>
       <c r="D179" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E179" t="n">
         <v>0</v>
       </c>
       <c r="F179" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G179" t="n">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="H179" t="inlineStr"/>
     </row>
@@ -5325,12 +5321,12 @@
       <c r="A180" t="inlineStr"/>
       <c r="B180" t="inlineStr">
         <is>
-          <t>配置地形の透明度</t>
+          <t>簡易マップ表示</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>Terrain placement transparency level</t>
+          <t>Simple map display</t>
         </is>
       </c>
       <c r="D180" t="n">
@@ -5340,23 +5336,27 @@
         <v>0</v>
       </c>
       <c r="F180" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G180" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="H180" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="H180" t="inlineStr">
+        <is>
+          <t>OFF,ON</t>
+        </is>
+      </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr"/>
       <c r="B181" t="inlineStr">
         <is>
-          <t>自動候補ユニット</t>
+          <t>地形属性の透明度</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>Unit candidate automatic</t>
+          <t>Terrain attribute transparency level</t>
         </is>
       </c>
       <c r="D181" t="n">
@@ -5366,61 +5366,53 @@
         <v>0</v>
       </c>
       <c r="F181" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G181" t="n">
-        <v>1</v>
-      </c>
-      <c r="H181" t="inlineStr">
-        <is>
-          <t>近接,巡回,順番</t>
-        </is>
-      </c>
+        <v>0.1</v>
+      </c>
+      <c r="H181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr"/>
       <c r="B182" t="inlineStr">
         <is>
-          <t>手動候補ユニット</t>
+          <t>地形属性の明るさ</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>Unit candidate manual</t>
+          <t>Terrain attribute brightness</t>
         </is>
       </c>
       <c r="D182" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="E182" t="n">
         <v>0</v>
       </c>
       <c r="F182" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G182" t="n">
-        <v>1</v>
-      </c>
-      <c r="H182" t="inlineStr">
-        <is>
-          <t>近接,巡回,順番</t>
-        </is>
-      </c>
+        <v>0.1</v>
+      </c>
+      <c r="H182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr"/>
       <c r="B183" t="inlineStr">
         <is>
-          <t>行動終了待ち時間</t>
+          <t>イベントの透明度</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>Action end wait time</t>
+          <t>Event trasparency level</t>
         </is>
       </c>
       <c r="D183" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="E183" t="n">
         <v>0</v>
@@ -5429,7 +5421,7 @@
         <v>1</v>
       </c>
       <c r="G183" t="n">
-        <v>0.125</v>
+        <v>0.1</v>
       </c>
       <c r="H183" t="inlineStr"/>
     </row>
@@ -5437,25 +5429,25 @@
       <c r="A184" t="inlineStr"/>
       <c r="B184" t="inlineStr">
         <is>
-          <t>マップユニット接触半径</t>
+          <t>マップパネルの透明度</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>Map unit contact radius</t>
+          <t>Map panel transparency level</t>
         </is>
       </c>
       <c r="D184" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E184" t="n">
         <v>0</v>
       </c>
       <c r="F184" t="n">
-        <v>2.5</v>
+        <v>1</v>
       </c>
       <c r="G184" t="n">
-        <v>0.125</v>
+        <v>0.1</v>
       </c>
       <c r="H184" t="inlineStr"/>
     </row>
@@ -5463,12 +5455,12 @@
       <c r="A185" t="inlineStr"/>
       <c r="B185" t="inlineStr">
         <is>
-          <t>マップユニット正面表示</t>
+          <t>配置地形の透明度</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>Map unit front display</t>
+          <t>Terrain placement transparency level</t>
         </is>
       </c>
       <c r="D185" t="n">
@@ -5478,92 +5470,96 @@
         <v>0</v>
       </c>
       <c r="F185" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G185" t="n">
-        <v>1</v>
-      </c>
-      <c r="H185" t="inlineStr">
-        <is>
-          <t>OFF,正面方向,正面範囲,全表示</t>
-        </is>
-      </c>
+        <v>0.1</v>
+      </c>
+      <c r="H185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr"/>
       <c r="B186" t="inlineStr">
         <is>
-          <t>待機ユニット頭補正</t>
+          <t>自動候補ユニット</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>Stanby unit head correction</t>
+          <t>Unit candidate automatic</t>
         </is>
       </c>
       <c r="D186" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="E186" t="n">
         <v>0</v>
       </c>
       <c r="F186" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G186" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="H186" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="H186" t="inlineStr">
+        <is>
+          <t>近接,巡回,順番</t>
+        </is>
+      </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr"/>
       <c r="B187" t="inlineStr">
         <is>
-          <t>待機ユニット上半身補正</t>
+          <t>手動候補ユニット</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>Stanby unit upper body correction</t>
+          <t>Unit candidate manual</t>
         </is>
       </c>
       <c r="D187" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E187" t="n">
         <v>0</v>
       </c>
       <c r="F187" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G187" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="H187" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="H187" t="inlineStr">
+        <is>
+          <t>近接,巡回,順番</t>
+        </is>
+      </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr"/>
       <c r="B188" t="inlineStr">
         <is>
-          <t>歩兵ユニット正面角度</t>
+          <t>行動終了待ち時間</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>Infantry front angle</t>
+          <t>Action end wait time</t>
         </is>
       </c>
       <c r="D188" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="E188" t="n">
-        <v>-90</v>
+        <v>0</v>
       </c>
       <c r="F188" t="n">
-        <v>90</v>
+        <v>1</v>
       </c>
       <c r="G188" t="n">
-        <v>1</v>
+        <v>0.125</v>
       </c>
       <c r="H188" t="inlineStr"/>
     </row>
@@ -5571,25 +5567,25 @@
       <c r="A189" t="inlineStr"/>
       <c r="B189" t="inlineStr">
         <is>
-          <t>騎乗ユニット正面角度</t>
+          <t>マップユニット接触半径</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>Cavalry front angle</t>
+          <t>Map unit contact radius</t>
         </is>
       </c>
       <c r="D189" t="n">
-        <v>45</v>
+        <v>2</v>
       </c>
       <c r="E189" t="n">
-        <v>-90</v>
+        <v>0</v>
       </c>
       <c r="F189" t="n">
-        <v>90</v>
+        <v>2.5</v>
       </c>
       <c r="G189" t="n">
-        <v>1</v>
+        <v>0.125</v>
       </c>
       <c r="H189" t="inlineStr"/>
     </row>
@@ -5597,51 +5593,55 @@
       <c r="A190" t="inlineStr"/>
       <c r="B190" t="inlineStr">
         <is>
-          <t>歩兵ユニット旋回範囲</t>
+          <t>マップユニット正面表示</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>Infantry turning range</t>
+          <t>Map unit front display</t>
         </is>
       </c>
       <c r="D190" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="E190" t="n">
         <v>0</v>
       </c>
       <c r="F190" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="G190" t="n">
         <v>1</v>
       </c>
-      <c r="H190" t="inlineStr"/>
+      <c r="H190" t="inlineStr">
+        <is>
+          <t>OFF,正面方向,正面範囲,全表示</t>
+        </is>
+      </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr"/>
       <c r="B191" t="inlineStr">
         <is>
-          <t>騎乗ユニット旋回範囲</t>
+          <t>待機ユニット頭補正</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>Cavalry turning range</t>
+          <t>Stanby unit head correction</t>
         </is>
       </c>
       <c r="D191" t="n">
-        <v>45</v>
+        <v>0.5</v>
       </c>
       <c r="E191" t="n">
         <v>0</v>
       </c>
       <c r="F191" t="n">
-        <v>90</v>
+        <v>1</v>
       </c>
       <c r="G191" t="n">
-        <v>1</v>
+        <v>0.05</v>
       </c>
       <c r="H191" t="inlineStr"/>
     </row>
@@ -5649,115 +5649,103 @@
       <c r="A192" t="inlineStr"/>
       <c r="B192" t="inlineStr">
         <is>
-          <t>マップユニット名表示</t>
+          <t>待機ユニット上半身補正</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>Map unit name display</t>
+          <t>Stanby unit upper body correction</t>
         </is>
       </c>
       <c r="D192" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="E192" t="n">
         <v>0</v>
       </c>
       <c r="F192" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G192" t="n">
-        <v>1</v>
-      </c>
-      <c r="H192" t="inlineStr">
-        <is>
-          <t>OFF,ON</t>
-        </is>
-      </c>
+        <v>0.05</v>
+      </c>
+      <c r="H192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr"/>
       <c r="B193" t="inlineStr">
         <is>
-          <t>マップモーション名表示</t>
+          <t>歩兵ユニット正面角度</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>Map motion name display</t>
+          <t>Infantry front angle</t>
         </is>
       </c>
       <c r="D193" t="n">
         <v>0</v>
       </c>
       <c r="E193" t="n">
-        <v>0</v>
+        <v>-90</v>
       </c>
       <c r="F193" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="G193" t="n">
         <v>1</v>
       </c>
-      <c r="H193" t="inlineStr">
-        <is>
-          <t>OFF,ON</t>
-        </is>
-      </c>
+      <c r="H193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr"/>
       <c r="B194" t="inlineStr">
         <is>
-          <t>マップステータス表示</t>
+          <t>騎乗ユニット正面角度</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>Map status display</t>
+          <t>Cavalry front angle</t>
         </is>
       </c>
       <c r="D194" t="n">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="E194" t="n">
-        <v>0</v>
+        <v>-90</v>
       </c>
       <c r="F194" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="G194" t="n">
         <v>1</v>
       </c>
-      <c r="H194" t="inlineStr">
-        <is>
-          <t>OFF,ON</t>
-        </is>
-      </c>
+      <c r="H194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr"/>
       <c r="B195" t="inlineStr">
         <is>
-          <t>ユニットサークル透過率</t>
+          <t>歩兵ユニット旋回範囲</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>Unit circle transmission</t>
+          <t>Infantry turning range</t>
         </is>
       </c>
       <c r="D195" t="n">
-        <v>0.5</v>
+        <v>15</v>
       </c>
       <c r="E195" t="n">
         <v>0</v>
       </c>
       <c r="F195" t="n">
-        <v>1</v>
+        <v>90</v>
       </c>
       <c r="G195" t="n">
-        <v>0.05</v>
+        <v>1</v>
       </c>
       <c r="H195" t="inlineStr"/>
     </row>
@@ -5765,42 +5753,38 @@
       <c r="A196" t="inlineStr"/>
       <c r="B196" t="inlineStr">
         <is>
-          <t>地面属性結果表示</t>
+          <t>騎乗ユニット旋回範囲</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>Terrain attribute effect display</t>
+          <t>Cavalry turning range</t>
         </is>
       </c>
       <c r="D196" t="n">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="E196" t="n">
         <v>0</v>
       </c>
       <c r="F196" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="G196" t="n">
         <v>1</v>
       </c>
-      <c r="H196" t="inlineStr">
-        <is>
-          <t>OFF,ON</t>
-        </is>
-      </c>
+      <c r="H196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr"/>
       <c r="B197" t="inlineStr">
         <is>
-          <t>視界遮蔽</t>
+          <t>マップユニット名表示</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>Visibility shield</t>
+          <t>Map unit name display</t>
         </is>
       </c>
       <c r="D197" t="n">
@@ -5825,12 +5809,12 @@
       <c r="A198" t="inlineStr"/>
       <c r="B198" t="inlineStr">
         <is>
-          <t>視界外地形隠蔽</t>
+          <t>マップモーション名表示</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>Hide out of sight terrain</t>
+          <t>Map motion name display</t>
         </is>
       </c>
       <c r="D198" t="n">
@@ -5855,16 +5839,16 @@
       <c r="A199" t="inlineStr"/>
       <c r="B199" t="inlineStr">
         <is>
-          <t>視界ピクセル数</t>
+          <t>マップステータス表示</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>Visiblity pixels number</t>
+          <t>Map status display</t>
         </is>
       </c>
       <c r="D199" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E199" t="n">
         <v>0</v>
@@ -5877,7 +5861,7 @@
       </c>
       <c r="H199" t="inlineStr">
         <is>
-          <t>1,2,4</t>
+          <t>OFF,ON</t>
         </is>
       </c>
     </row>
@@ -5885,42 +5869,38 @@
       <c r="A200" t="inlineStr"/>
       <c r="B200" t="inlineStr">
         <is>
-          <t>視界フィルタ</t>
+          <t>ユニットサークル透過率</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>Visibility filter</t>
+          <t>Unit circle transmission</t>
         </is>
       </c>
       <c r="D200" t="n">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="E200" t="n">
         <v>0</v>
       </c>
       <c r="F200" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G200" t="n">
-        <v>1</v>
-      </c>
-      <c r="H200" t="inlineStr">
-        <is>
-          <t>ポイント,バイリニア,トライリニア</t>
-        </is>
-      </c>
+        <v>0.05</v>
+      </c>
+      <c r="H200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr"/>
       <c r="B201" t="inlineStr">
         <is>
-          <t>松明使用制限無効</t>
+          <t>地面属性結果表示</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>Nullify torch use limit</t>
+          <t>Terrain attribute effect display</t>
         </is>
       </c>
       <c r="D201" t="n">
@@ -5945,38 +5925,42 @@
       <c r="A202" t="inlineStr"/>
       <c r="B202" t="inlineStr">
         <is>
-          <t>配置レベルオフセット</t>
+          <t>視界遮蔽</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>Placement level offset</t>
+          <t>Visibility shield</t>
         </is>
       </c>
       <c r="D202" t="n">
         <v>0</v>
       </c>
       <c r="E202" t="n">
-        <v>-40</v>
+        <v>0</v>
       </c>
       <c r="F202" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="G202" t="n">
         <v>1</v>
       </c>
-      <c r="H202" t="inlineStr"/>
+      <c r="H202" t="inlineStr">
+        <is>
+          <t>OFF,ON</t>
+        </is>
+      </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr"/>
       <c r="B203" t="inlineStr">
         <is>
-          <t>マップコマンド数捏造</t>
+          <t>視界外地形隠蔽</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>Fake map command</t>
+          <t>Hide out of sight terrain</t>
         </is>
       </c>
       <c r="D203" t="n">
@@ -6001,42 +5985,46 @@
       <c r="A204" t="inlineStr"/>
       <c r="B204" t="inlineStr">
         <is>
-          <t>ｺﾝﾊﾞｯﾄ開始時ｶﾒﾗ回転角度</t>
+          <t>視界ピクセル数</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>Camera rotate degree when combat start</t>
+          <t>Visiblity pixels number</t>
         </is>
       </c>
       <c r="D204" t="n">
-        <v>180</v>
+        <v>2</v>
       </c>
       <c r="E204" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="F204" t="n">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="G204" t="n">
         <v>1</v>
       </c>
-      <c r="H204" t="inlineStr"/>
+      <c r="H204" t="inlineStr">
+        <is>
+          <t>1,2,4</t>
+        </is>
+      </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr"/>
       <c r="B205" t="inlineStr">
         <is>
-          <t>&lt;マップデバッグ</t>
+          <t>視界フィルタ</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>Map debug</t>
+          <t>Visibility filter</t>
         </is>
       </c>
       <c r="D205" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E205" t="n">
         <v>0</v>
@@ -6047,18 +6035,22 @@
       <c r="G205" t="n">
         <v>1</v>
       </c>
-      <c r="H205" t="inlineStr"/>
+      <c r="H205" t="inlineStr">
+        <is>
+          <t>ポイント,バイリニア,トライリニア</t>
+        </is>
+      </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr"/>
       <c r="B206" t="inlineStr">
         <is>
-          <t>&gt;マップカメラ</t>
+          <t>松明使用制限無効</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>MapCamera</t>
+          <t>Nullify torch use limit</t>
         </is>
       </c>
       <c r="D206" t="n">
@@ -6073,28 +6065,32 @@
       <c r="G206" t="n">
         <v>1</v>
       </c>
-      <c r="H206" t="inlineStr"/>
+      <c r="H206" t="inlineStr">
+        <is>
+          <t>OFF,ON</t>
+        </is>
+      </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr"/>
       <c r="B207" t="inlineStr">
         <is>
-          <t>マップカメラ視野角</t>
+          <t>配置レベルオフセット</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>Map camera viewing angle</t>
+          <t>Placement level offset</t>
         </is>
       </c>
       <c r="D207" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="E207" t="n">
-        <v>10</v>
+        <v>-40</v>
       </c>
       <c r="F207" t="n">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="G207" t="n">
         <v>1</v>
@@ -6105,12 +6101,12 @@
       <c r="A208" t="inlineStr"/>
       <c r="B208" t="inlineStr">
         <is>
-          <t>マップカメラ入力</t>
+          <t>マップコマンド数捏造</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>Map camera input</t>
+          <t>Fake map command</t>
         </is>
       </c>
       <c r="D208" t="n">
@@ -6127,7 +6123,7 @@
       </c>
       <c r="H208" t="inlineStr">
         <is>
-          <t>１ボタン,２ボタン</t>
+          <t>OFF,ON</t>
         </is>
       </c>
     </row>
@@ -6135,52 +6131,48 @@
       <c r="A209" t="inlineStr"/>
       <c r="B209" t="inlineStr">
         <is>
-          <t>マップカメラ切り替え</t>
+          <t>ｺﾝﾊﾞｯﾄ開始時ｶﾒﾗ回転角度</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>Toggle map camera</t>
+          <t>Camera rotate degree when combat start</t>
         </is>
       </c>
       <c r="D209" t="n">
-        <v>1</v>
+        <v>180</v>
       </c>
       <c r="E209" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="F209" t="n">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="G209" t="n">
         <v>1</v>
       </c>
-      <c r="H209" t="inlineStr">
-        <is>
-          <t>近遠,近中遠</t>
-        </is>
-      </c>
+      <c r="H209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr"/>
       <c r="B210" t="inlineStr">
         <is>
-          <t>マップカメラ回転単位</t>
+          <t>&lt;マップデバッグ</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>Map camera rotation unit</t>
+          <t>Map debug</t>
         </is>
       </c>
       <c r="D210" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="E210" t="n">
         <v>0</v>
       </c>
       <c r="F210" t="n">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="G210" t="n">
         <v>1</v>
@@ -6191,16 +6183,16 @@
       <c r="A211" t="inlineStr"/>
       <c r="B211" t="inlineStr">
         <is>
-          <t>マップカメラ回転制限</t>
+          <t>&gt;マップカメラ</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>Map camera rotation limit</t>
+          <t>MapCamera</t>
         </is>
       </c>
       <c r="D211" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E211" t="n">
         <v>0</v>
@@ -6211,32 +6203,28 @@
       <c r="G211" t="n">
         <v>1</v>
       </c>
-      <c r="H211" t="inlineStr">
-        <is>
-          <t>OFF,ON</t>
-        </is>
-      </c>
+      <c r="H211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr"/>
       <c r="B212" t="inlineStr">
         <is>
-          <t>マップカメラ傾き遊び</t>
+          <t>マップカメラ視野角</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t xml:space="preserve">Map camera tilt looseness </t>
+          <t>Map camera viewing angle</t>
         </is>
       </c>
       <c r="D212" t="n">
+        <v>30</v>
+      </c>
+      <c r="E212" t="n">
         <v>10</v>
       </c>
-      <c r="E212" t="n">
-        <v>0</v>
-      </c>
       <c r="F212" t="n">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="G212" t="n">
         <v>1</v>
@@ -6247,38 +6235,42 @@
       <c r="A213" t="inlineStr"/>
       <c r="B213" t="inlineStr">
         <is>
-          <t>マップカメラ傾き速度</t>
+          <t>マップカメラ入力</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>Map camera tilt level</t>
+          <t>Map camera input</t>
         </is>
       </c>
       <c r="D213" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E213" t="n">
         <v>0</v>
       </c>
       <c r="F213" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G213" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="H213" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="H213" t="inlineStr">
+        <is>
+          <t>１ボタン,２ボタン</t>
+        </is>
+      </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr"/>
       <c r="B214" t="inlineStr">
         <is>
-          <t>マップカメラ傾き初期化</t>
+          <t>マップカメラ切り替え</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>Map camera tilt reset</t>
+          <t>Toggle map camera</t>
         </is>
       </c>
       <c r="D214" t="n">
@@ -6295,7 +6287,7 @@
       </c>
       <c r="H214" t="inlineStr">
         <is>
-          <t>OFF,ON</t>
+          <t>近遠,近中遠</t>
         </is>
       </c>
     </row>
@@ -6303,22 +6295,22 @@
       <c r="A215" t="inlineStr"/>
       <c r="B215" t="inlineStr">
         <is>
-          <t>マップカメラ傾き近</t>
+          <t>マップカメラ回転単位</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t xml:space="preserve">Map camera tilt near </t>
+          <t>Map camera rotation unit</t>
         </is>
       </c>
       <c r="D215" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="E215" t="n">
         <v>0</v>
       </c>
       <c r="F215" t="n">
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="G215" t="n">
         <v>1</v>
@@ -6329,48 +6321,52 @@
       <c r="A216" t="inlineStr"/>
       <c r="B216" t="inlineStr">
         <is>
-          <t>マップカメラ傾き遠</t>
+          <t>マップカメラ回転制限</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>Map camera tilt far</t>
+          <t>Map camera rotation limit</t>
         </is>
       </c>
       <c r="D216" t="n">
-        <v>80</v>
+        <v>1</v>
       </c>
       <c r="E216" t="n">
         <v>0</v>
       </c>
       <c r="F216" t="n">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="G216" t="n">
         <v>1</v>
       </c>
-      <c r="H216" t="inlineStr"/>
+      <c r="H216" t="inlineStr">
+        <is>
+          <t>OFF,ON</t>
+        </is>
+      </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr"/>
       <c r="B217" t="inlineStr">
         <is>
-          <t>マップカメラ距離近</t>
+          <t>マップカメラ傾き遊び</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>Map camera distance near</t>
+          <t xml:space="preserve">Map camera tilt looseness </t>
         </is>
       </c>
       <c r="D217" t="n">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="E217" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="F217" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="G217" t="n">
         <v>1</v>
@@ -6381,25 +6377,25 @@
       <c r="A218" t="inlineStr"/>
       <c r="B218" t="inlineStr">
         <is>
-          <t>マップカメラ距離遠</t>
+          <t>マップカメラ傾き速度</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>Map camera distance far</t>
+          <t>Map camera tilt level</t>
         </is>
       </c>
       <c r="D218" t="n">
-        <v>120</v>
+        <v>2</v>
       </c>
       <c r="E218" t="n">
+        <v>0</v>
+      </c>
+      <c r="F218" t="n">
         <v>10</v>
       </c>
-      <c r="F218" t="n">
-        <v>1000</v>
-      </c>
       <c r="G218" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="H218" t="inlineStr"/>
     </row>
@@ -6407,51 +6403,55 @@
       <c r="A219" t="inlineStr"/>
       <c r="B219" t="inlineStr">
         <is>
-          <t>マップカメラ位置補間時間</t>
+          <t>マップカメラ傾き初期化</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>Map camera position interpolation time</t>
+          <t>Map camera tilt reset</t>
         </is>
       </c>
       <c r="D219" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="E219" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="F219" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G219" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="H219" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="H219" t="inlineStr">
+        <is>
+          <t>OFF,ON</t>
+        </is>
+      </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr"/>
       <c r="B220" t="inlineStr">
         <is>
-          <t>マップカメラ回転補間時間</t>
+          <t>マップカメラ傾き近</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>Map camera rotation interpolation time</t>
+          <t xml:space="preserve">Map camera tilt near </t>
         </is>
       </c>
       <c r="D220" t="n">
-        <v>0.75</v>
+        <v>50</v>
       </c>
       <c r="E220" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="F220" t="n">
-        <v>10</v>
+        <v>90</v>
       </c>
       <c r="G220" t="n">
-        <v>0.01</v>
+        <v>1</v>
       </c>
       <c r="H220" t="inlineStr"/>
     </row>
@@ -6459,25 +6459,25 @@
       <c r="A221" t="inlineStr"/>
       <c r="B221" t="inlineStr">
         <is>
-          <t>マップＨＰゲージオフセット率</t>
+          <t>マップカメラ傾き遠</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>Map HP gauge offset rate</t>
+          <t>Map camera tilt far</t>
         </is>
       </c>
       <c r="D221" t="n">
-        <v>1</v>
+        <v>80</v>
       </c>
       <c r="E221" t="n">
         <v>0</v>
       </c>
       <c r="F221" t="n">
-        <v>2</v>
+        <v>90</v>
       </c>
       <c r="G221" t="n">
-        <v>0.01</v>
+        <v>1</v>
       </c>
       <c r="H221" t="inlineStr"/>
     </row>
@@ -6485,25 +6485,25 @@
       <c r="A222" t="inlineStr"/>
       <c r="B222" t="inlineStr">
         <is>
-          <t>マップカメラ押し出しＸ近</t>
+          <t>マップカメラ距離近</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>Map camera extrusion X near</t>
+          <t>Map camera distance near</t>
         </is>
       </c>
       <c r="D222" t="n">
-        <v>2.5</v>
+        <v>60</v>
       </c>
       <c r="E222" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F222" t="n">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="G222" t="n">
-        <v>0.125</v>
+        <v>1</v>
       </c>
       <c r="H222" t="inlineStr"/>
     </row>
@@ -6511,25 +6511,25 @@
       <c r="A223" t="inlineStr"/>
       <c r="B223" t="inlineStr">
         <is>
-          <t>マップカメラ押し出しＺ近</t>
+          <t>マップカメラ距離遠</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>Map camera extrusion Z near</t>
+          <t>Map camera distance far</t>
         </is>
       </c>
       <c r="D223" t="n">
-        <v>0.5</v>
+        <v>120</v>
       </c>
       <c r="E223" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F223" t="n">
-        <v>10</v>
+        <v>1000</v>
       </c>
       <c r="G223" t="n">
-        <v>0.125</v>
+        <v>1</v>
       </c>
       <c r="H223" t="inlineStr"/>
     </row>
@@ -6537,25 +6537,25 @@
       <c r="A224" t="inlineStr"/>
       <c r="B224" t="inlineStr">
         <is>
-          <t>マップカメラ押し出しＸ遠</t>
+          <t>マップカメラ位置補間時間</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>Map camera extrusion X far</t>
+          <t>Map camera position interpolation time</t>
         </is>
       </c>
       <c r="D224" t="n">
-        <v>5</v>
+        <v>0.75</v>
       </c>
       <c r="E224" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="F224" t="n">
         <v>10</v>
       </c>
       <c r="G224" t="n">
-        <v>0.125</v>
+        <v>0.01</v>
       </c>
       <c r="H224" t="inlineStr"/>
     </row>
@@ -6563,25 +6563,25 @@
       <c r="A225" t="inlineStr"/>
       <c r="B225" t="inlineStr">
         <is>
-          <t>マップカメラ押し出しＺ遠</t>
+          <t>マップカメラ回転補間時間</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>Map camera extrusion Z far</t>
+          <t>Map camera rotation interpolation time</t>
         </is>
       </c>
       <c r="D225" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="E225" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="F225" t="n">
         <v>10</v>
       </c>
       <c r="G225" t="n">
-        <v>0.125</v>
+        <v>0.01</v>
       </c>
       <c r="H225" t="inlineStr"/>
     </row>
@@ -6589,25 +6589,25 @@
       <c r="A226" t="inlineStr"/>
       <c r="B226" t="inlineStr">
         <is>
-          <t>マップカメラ高度率</t>
+          <t>マップＨＰゲージオフセット率</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>Map camera altitude</t>
+          <t>Map HP gauge offset rate</t>
         </is>
       </c>
       <c r="D226" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E226" t="n">
         <v>0</v>
       </c>
       <c r="F226" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G226" t="n">
-        <v>0.125</v>
+        <v>0.01</v>
       </c>
       <c r="H226" t="inlineStr"/>
     </row>
@@ -6615,25 +6615,25 @@
       <c r="A227" t="inlineStr"/>
       <c r="B227" t="inlineStr">
         <is>
-          <t>マップカメラ透過カメラ</t>
+          <t>マップカメラ押し出しＸ近</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>Map camera alpha camera</t>
+          <t>Map camera extrusion X near</t>
         </is>
       </c>
       <c r="D227" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="E227" t="n">
         <v>0</v>
       </c>
       <c r="F227" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G227" t="n">
-        <v>0.01</v>
+        <v>0.125</v>
       </c>
       <c r="H227" t="inlineStr"/>
     </row>
@@ -6641,25 +6641,25 @@
       <c r="A228" t="inlineStr"/>
       <c r="B228" t="inlineStr">
         <is>
-          <t>マップカメラ透過キャラ</t>
+          <t>マップカメラ押し出しＺ近</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>Map camera alpha character</t>
+          <t>Map camera extrusion Z near</t>
         </is>
       </c>
       <c r="D228" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="E228" t="n">
         <v>0</v>
       </c>
       <c r="F228" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G228" t="n">
-        <v>0.01</v>
+        <v>0.125</v>
       </c>
       <c r="H228" t="inlineStr"/>
     </row>
@@ -6667,25 +6667,25 @@
       <c r="A229" t="inlineStr"/>
       <c r="B229" t="inlineStr">
         <is>
-          <t>マップカメラ透過あいだ</t>
+          <t>マップカメラ押し出しＸ遠</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>Map camera alpha between</t>
+          <t>Map camera extrusion X far</t>
         </is>
       </c>
       <c r="D229" t="n">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="E229" t="n">
         <v>0</v>
       </c>
       <c r="F229" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G229" t="n">
-        <v>0.01</v>
+        <v>0.125</v>
       </c>
       <c r="H229" t="inlineStr"/>
     </row>
@@ -6693,25 +6693,25 @@
       <c r="A230" t="inlineStr"/>
       <c r="B230" t="inlineStr">
         <is>
-          <t>&lt;マップカメラ</t>
+          <t>マップカメラ押し出しＺ遠</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>Map camera</t>
+          <t>Map camera extrusion Z far</t>
         </is>
       </c>
       <c r="D230" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E230" t="n">
         <v>0</v>
       </c>
       <c r="F230" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G230" t="n">
-        <v>1</v>
+        <v>0.125</v>
       </c>
       <c r="H230" t="inlineStr"/>
     </row>
@@ -6719,12 +6719,12 @@
       <c r="A231" t="inlineStr"/>
       <c r="B231" t="inlineStr">
         <is>
-          <t>&gt;解像度</t>
+          <t>マップカメラ高度率</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>Resolution</t>
+          <t>Map camera altitude</t>
         </is>
       </c>
       <c r="D231" t="n">
@@ -6734,10 +6734,10 @@
         <v>0</v>
       </c>
       <c r="F231" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G231" t="n">
-        <v>1</v>
+        <v>0.125</v>
       </c>
       <c r="H231" t="inlineStr"/>
     </row>
@@ -6745,25 +6745,25 @@
       <c r="A232" t="inlineStr"/>
       <c r="B232" t="inlineStr">
         <is>
-          <t>マップ解像度</t>
+          <t>マップカメラ透過カメラ</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>Map resolution</t>
+          <t>Map camera alpha camera</t>
         </is>
       </c>
       <c r="D232" t="n">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="E232" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="F232" t="n">
         <v>1</v>
       </c>
       <c r="G232" t="n">
-        <v>0.05</v>
+        <v>0.01</v>
       </c>
       <c r="H232" t="inlineStr"/>
     </row>
@@ -6771,25 +6771,25 @@
       <c r="A233" t="inlineStr"/>
       <c r="B233" t="inlineStr">
         <is>
-          <t>コンバット解像度</t>
+          <t>マップカメラ透過キャラ</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>Combat resolution</t>
+          <t>Map camera alpha character</t>
         </is>
       </c>
       <c r="D233" t="n">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="E233" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="F233" t="n">
         <v>1</v>
       </c>
       <c r="G233" t="n">
-        <v>0.05</v>
+        <v>0.01</v>
       </c>
       <c r="H233" t="inlineStr"/>
     </row>
@@ -6797,25 +6797,25 @@
       <c r="A234" t="inlineStr"/>
       <c r="B234" t="inlineStr">
         <is>
-          <t>戦闘予測解像度</t>
+          <t>マップカメラ透過あいだ</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>Combat prediction resolution</t>
+          <t>Map camera alpha between</t>
         </is>
       </c>
       <c r="D234" t="n">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="E234" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="F234" t="n">
         <v>1</v>
       </c>
       <c r="G234" t="n">
-        <v>0.05</v>
+        <v>0.01</v>
       </c>
       <c r="H234" t="inlineStr"/>
     </row>
@@ -6823,25 +6823,25 @@
       <c r="A235" t="inlineStr"/>
       <c r="B235" t="inlineStr">
         <is>
-          <t>拠点解像度</t>
+          <t>&lt;マップカメラ</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>Base resolution</t>
+          <t>Map camera</t>
         </is>
       </c>
       <c r="D235" t="n">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="E235" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="F235" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G235" t="n">
-        <v>0.05</v>
+        <v>1</v>
       </c>
       <c r="H235" t="inlineStr"/>
     </row>
@@ -6849,25 +6849,25 @@
       <c r="A236" t="inlineStr"/>
       <c r="B236" t="inlineStr">
         <is>
-          <t>拠点解像度2</t>
+          <t>&gt;解像度</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>Base resolution 2</t>
+          <t>Resolution</t>
         </is>
       </c>
       <c r="D236" t="n">
-        <v>0.85</v>
+        <v>0</v>
       </c>
       <c r="E236" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="F236" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G236" t="n">
-        <v>0.05</v>
+        <v>1</v>
       </c>
       <c r="H236" t="inlineStr"/>
     </row>
@@ -6875,12 +6875,12 @@
       <c r="A237" t="inlineStr"/>
       <c r="B237" t="inlineStr">
         <is>
-          <t>絆解像度</t>
+          <t>マップ解像度</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>Kizuna resolution</t>
+          <t>Map resolution</t>
         </is>
       </c>
       <c r="D237" t="n">
@@ -6901,12 +6901,12 @@
       <c r="A238" t="inlineStr"/>
       <c r="B238" t="inlineStr">
         <is>
-          <t>絆解像度2</t>
+          <t>コンバット解像度</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>Kizuna resolution 2</t>
+          <t>Combat resolution</t>
         </is>
       </c>
       <c r="D238" t="n">
@@ -6927,12 +6927,12 @@
       <c r="A239" t="inlineStr"/>
       <c r="B239" t="inlineStr">
         <is>
-          <t>GMAP解像度</t>
+          <t>戦闘予測解像度</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>GMAP resolution</t>
+          <t>Combat prediction resolution</t>
         </is>
       </c>
       <c r="D239" t="n">
@@ -6953,16 +6953,16 @@
       <c r="A240" t="inlineStr"/>
       <c r="B240" t="inlineStr">
         <is>
-          <t>デモ解像度</t>
+          <t>拠点解像度</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>Demo resolution</t>
+          <t>Base resolution</t>
         </is>
       </c>
       <c r="D240" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="E240" t="n">
         <v>0.1</v>
@@ -6979,16 +6979,16 @@
       <c r="A241" t="inlineStr"/>
       <c r="B241" t="inlineStr">
         <is>
-          <t>背景解像度</t>
+          <t>拠点解像度2</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>Background resolution</t>
+          <t>Base resolution 2</t>
         </is>
       </c>
       <c r="D241" t="n">
-        <v>0.5</v>
+        <v>0.85</v>
       </c>
       <c r="E241" t="n">
         <v>0.1</v>
@@ -7005,16 +7005,16 @@
       <c r="A242" t="inlineStr"/>
       <c r="B242" t="inlineStr">
         <is>
-          <t>背景暗転率</t>
+          <t>絆解像度</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>Background fade resolution</t>
+          <t>Kizuna resolution</t>
         </is>
       </c>
       <c r="D242" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="E242" t="n">
         <v>0.1</v>
@@ -7031,25 +7031,25 @@
       <c r="A243" t="inlineStr"/>
       <c r="B243" t="inlineStr">
         <is>
-          <t>背景ぼかし強度</t>
+          <t>絆解像度2</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>Background blur level</t>
+          <t>Kizuna resolution 2</t>
         </is>
       </c>
       <c r="D243" t="n">
-        <v>3</v>
+        <v>0.9</v>
       </c>
       <c r="E243" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="F243" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G243" t="n">
-        <v>1</v>
+        <v>0.05</v>
       </c>
       <c r="H243" t="inlineStr"/>
     </row>
@@ -7057,25 +7057,25 @@
       <c r="A244" t="inlineStr"/>
       <c r="B244" t="inlineStr">
         <is>
-          <t>&lt;解像度</t>
+          <t>GMAP解像度</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>Resolution</t>
+          <t>GMAP resolution</t>
         </is>
       </c>
       <c r="D244" t="n">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="E244" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="F244" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G244" t="n">
-        <v>1</v>
+        <v>0.05</v>
       </c>
       <c r="H244" t="inlineStr"/>
     </row>
@@ -7083,25 +7083,25 @@
       <c r="A245" t="inlineStr"/>
       <c r="B245" t="inlineStr">
         <is>
-          <t>&gt;デバッグモニタ</t>
+          <t>デモ解像度</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>DebugMonitor</t>
+          <t>Demo resolution</t>
         </is>
       </c>
       <c r="D245" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E245" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="F245" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G245" t="n">
-        <v>1</v>
+        <v>0.05</v>
       </c>
       <c r="H245" t="inlineStr"/>
     </row>
@@ -7109,102 +7109,90 @@
       <c r="A246" t="inlineStr"/>
       <c r="B246" t="inlineStr">
         <is>
-          <t>デバッグモニタ表示</t>
+          <t>背景解像度</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>Debug monitor display</t>
+          <t>Background resolution</t>
         </is>
       </c>
       <c r="D246" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E246" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="F246" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G246" t="n">
-        <v>1</v>
-      </c>
-      <c r="H246" t="inlineStr">
-        <is>
-          <t>OFF,ON</t>
-        </is>
-      </c>
+        <v>0.05</v>
+      </c>
+      <c r="H246" t="inlineStr"/>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr"/>
       <c r="B247" t="inlineStr">
         <is>
-          <t>ＦＰＳ表示</t>
+          <t>背景暗転率</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>FPS display</t>
+          <t>Background fade resolution</t>
         </is>
       </c>
       <c r="D247" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="E247" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="F247" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G247" t="n">
-        <v>1</v>
-      </c>
-      <c r="H247" t="inlineStr">
-        <is>
-          <t>OFF,ON</t>
-        </is>
-      </c>
+        <v>0.05</v>
+      </c>
+      <c r="H247" t="inlineStr"/>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr"/>
       <c r="B248" t="inlineStr">
         <is>
-          <t>ＧＰＵステート表示</t>
+          <t>背景ぼかし強度</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>GPU state display</t>
+          <t>Background blur level</t>
         </is>
       </c>
       <c r="D248" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E248" t="n">
         <v>0</v>
       </c>
       <c r="F248" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G248" t="n">
         <v>1</v>
       </c>
-      <c r="H248" t="inlineStr">
-        <is>
-          <t>OFF,ON</t>
-        </is>
-      </c>
+      <c r="H248" t="inlineStr"/>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr"/>
       <c r="B249" t="inlineStr">
         <is>
-          <t>メモリ表示</t>
+          <t>&lt;解像度</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>Memory display</t>
+          <t>Resolution</t>
         </is>
       </c>
       <c r="D249" t="n">
@@ -7219,22 +7207,18 @@
       <c r="G249" t="n">
         <v>1</v>
       </c>
-      <c r="H249" t="inlineStr">
-        <is>
-          <t>OFF,簡易,詳細</t>
-        </is>
-      </c>
+      <c r="H249" t="inlineStr"/>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr"/>
       <c r="B250" t="inlineStr">
         <is>
-          <t>GC回数表示</t>
+          <t>&gt;デバッグモニタ</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>GC number display</t>
+          <t>DebugMonitor</t>
         </is>
       </c>
       <c r="D250" t="n">
@@ -7249,26 +7233,22 @@
       <c r="G250" t="n">
         <v>1</v>
       </c>
-      <c r="H250" t="inlineStr">
-        <is>
-          <t>OFF,ON</t>
-        </is>
-      </c>
+      <c r="H250" t="inlineStr"/>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr"/>
       <c r="B251" t="inlineStr">
         <is>
-          <t>動作モード表示</t>
+          <t>デバッグモニタ表示</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>Operation mode display</t>
+          <t>Debug monitor display</t>
         </is>
       </c>
       <c r="D251" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E251" t="n">
         <v>0</v>
@@ -7289,16 +7269,16 @@
       <c r="A252" t="inlineStr"/>
       <c r="B252" t="inlineStr">
         <is>
-          <t>シーン名表示</t>
+          <t>ＦＰＳ表示</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>Scene name display</t>
+          <t>FPS display</t>
         </is>
       </c>
       <c r="D252" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E252" t="n">
         <v>0</v>
@@ -7319,12 +7299,12 @@
       <c r="A253" t="inlineStr"/>
       <c r="B253" t="inlineStr">
         <is>
-          <t>カメラ名表示</t>
+          <t>ＧＰＵステート表示</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>Camera name display</t>
+          <t>GPU state display</t>
         </is>
       </c>
       <c r="D253" t="n">
@@ -7349,16 +7329,16 @@
       <c r="A254" t="inlineStr"/>
       <c r="B254" t="inlineStr">
         <is>
-          <t>解像度表示</t>
+          <t>メモリ表示</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>Resolution display</t>
+          <t>Memory display</t>
         </is>
       </c>
       <c r="D254" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E254" t="n">
         <v>0</v>
@@ -7371,7 +7351,7 @@
       </c>
       <c r="H254" t="inlineStr">
         <is>
-          <t>OFF,ON</t>
+          <t>OFF,簡易,詳細</t>
         </is>
       </c>
     </row>
@@ -7379,12 +7359,12 @@
       <c r="A255" t="inlineStr"/>
       <c r="B255" t="inlineStr">
         <is>
-          <t>スティック入力表示</t>
+          <t>GC回数表示</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>Stink input display</t>
+          <t>GC number display</t>
         </is>
       </c>
       <c r="D255" t="n">
@@ -7409,16 +7389,16 @@
       <c r="A256" t="inlineStr"/>
       <c r="B256" t="inlineStr">
         <is>
-          <t>ボタン入力表示</t>
+          <t>動作モード表示</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>Button input display</t>
+          <t>Operation mode display</t>
         </is>
       </c>
       <c r="D256" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E256" t="n">
         <v>0</v>
@@ -7439,12 +7419,12 @@
       <c r="A257" t="inlineStr"/>
       <c r="B257" t="inlineStr">
         <is>
-          <t>チャプター名表示</t>
+          <t>シーン名表示</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>Character name display</t>
+          <t>Scene name display</t>
         </is>
       </c>
       <c r="D257" t="n">
@@ -7469,12 +7449,12 @@
       <c r="A258" t="inlineStr"/>
       <c r="B258" t="inlineStr">
         <is>
-          <t>パフォーマンス表示</t>
+          <t>カメラ名表示</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>Performance display</t>
+          <t>Camera name display</t>
         </is>
       </c>
       <c r="D258" t="n">
@@ -7499,12 +7479,12 @@
       <c r="A259" t="inlineStr"/>
       <c r="B259" t="inlineStr">
         <is>
-          <t>経過時間表示</t>
+          <t>解像度表示</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>Elapsed time display</t>
+          <t>Resolution display</t>
         </is>
       </c>
       <c r="D259" t="n">
@@ -7521,7 +7501,7 @@
       </c>
       <c r="H259" t="inlineStr">
         <is>
-          <t>OFF,簡易,詳細</t>
+          <t>OFF,ON</t>
         </is>
       </c>
     </row>
@@ -7529,16 +7509,16 @@
       <c r="A260" t="inlineStr"/>
       <c r="B260" t="inlineStr">
         <is>
-          <t>プロセス表示</t>
+          <t>スティック入力表示</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>Process display</t>
+          <t>Stink input display</t>
         </is>
       </c>
       <c r="D260" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E260" t="n">
         <v>0</v>
@@ -7551,7 +7531,7 @@
       </c>
       <c r="H260" t="inlineStr">
         <is>
-          <t>OFF,簡易,詳細</t>
+          <t>OFF,ON</t>
         </is>
       </c>
     </row>
@@ -7559,12 +7539,12 @@
       <c r="A261" t="inlineStr"/>
       <c r="B261" t="inlineStr">
         <is>
-          <t>変数表示</t>
+          <t>ボタン入力表示</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>Variable display</t>
+          <t>Button input display</t>
         </is>
       </c>
       <c r="D261" t="n">
@@ -7589,12 +7569,12 @@
       <c r="A262" t="inlineStr"/>
       <c r="B262" t="inlineStr">
         <is>
-          <t>乱数表示</t>
+          <t>チャプター名表示</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>Random number display</t>
+          <t>Character name display</t>
         </is>
       </c>
       <c r="D262" t="n">
@@ -7611,7 +7591,7 @@
       </c>
       <c r="H262" t="inlineStr">
         <is>
-          <t>OFF,簡易,詳細</t>
+          <t>OFF,ON</t>
         </is>
       </c>
     </row>
@@ -7619,16 +7599,16 @@
       <c r="A263" t="inlineStr"/>
       <c r="B263" t="inlineStr">
         <is>
-          <t>イベント表示</t>
+          <t>パフォーマンス表示</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>Event display</t>
+          <t>Performance display</t>
         </is>
       </c>
       <c r="D263" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E263" t="n">
         <v>0</v>
@@ -7649,16 +7629,16 @@
       <c r="A264" t="inlineStr"/>
       <c r="B264" t="inlineStr">
         <is>
-          <t>会話デバッグ表示</t>
+          <t>経過時間表示</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>Convo debug display</t>
+          <t>Elapsed time display</t>
         </is>
       </c>
       <c r="D264" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E264" t="n">
         <v>0</v>
@@ -7671,7 +7651,7 @@
       </c>
       <c r="H264" t="inlineStr">
         <is>
-          <t>OFF,ON</t>
+          <t>OFF,簡易,詳細</t>
         </is>
       </c>
     </row>
@@ -7679,16 +7659,16 @@
       <c r="A265" t="inlineStr"/>
       <c r="B265" t="inlineStr">
         <is>
-          <t>センター表示</t>
+          <t>プロセス表示</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>Center display</t>
+          <t>Process display</t>
         </is>
       </c>
       <c r="D265" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E265" t="n">
         <v>0</v>
@@ -7701,7 +7681,7 @@
       </c>
       <c r="H265" t="inlineStr">
         <is>
-          <t>OFF,４分割,３分割</t>
+          <t>OFF,簡易,詳細</t>
         </is>
       </c>
     </row>
@@ -7709,16 +7689,16 @@
       <c r="A266" t="inlineStr"/>
       <c r="B266" t="inlineStr">
         <is>
-          <t>マテリアル表示</t>
+          <t>変数表示</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>Material display</t>
+          <t>Variable display</t>
         </is>
       </c>
       <c r="D266" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E266" t="n">
         <v>0</v>
@@ -7739,12 +7719,12 @@
       <c r="A267" t="inlineStr"/>
       <c r="B267" t="inlineStr">
         <is>
-          <t>プロファイル表示</t>
+          <t>乱数表示</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>Profile display</t>
+          <t>Random number display</t>
         </is>
       </c>
       <c r="D267" t="n">
@@ -7761,7 +7741,7 @@
       </c>
       <c r="H267" t="inlineStr">
         <is>
-          <t>OFF,Basic,Memory,GPU</t>
+          <t>OFF,簡易,詳細</t>
         </is>
       </c>
     </row>
@@ -7769,16 +7749,16 @@
       <c r="A268" t="inlineStr"/>
       <c r="B268" t="inlineStr">
         <is>
-          <t>サウンド表示</t>
+          <t>イベント表示</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>Sound display</t>
+          <t>Event display</t>
         </is>
       </c>
       <c r="D268" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E268" t="n">
         <v>0</v>
@@ -7791,7 +7771,7 @@
       </c>
       <c r="H268" t="inlineStr">
         <is>
-          <t>OFF,簡易,詳細</t>
+          <t>OFF,ON</t>
         </is>
       </c>
     </row>
@@ -7799,12 +7779,12 @@
       <c r="A269" t="inlineStr"/>
       <c r="B269" t="inlineStr">
         <is>
-          <t>警告自動表示</t>
+          <t>会話デバッグ表示</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>Warning automatic display</t>
+          <t>Convo debug display</t>
         </is>
       </c>
       <c r="D269" t="n">
@@ -7821,7 +7801,7 @@
       </c>
       <c r="H269" t="inlineStr">
         <is>
-          <t>OFF,左上,右上,左下,右下</t>
+          <t>OFF,ON</t>
         </is>
       </c>
     </row>
@@ -7829,12 +7809,12 @@
       <c r="A270" t="inlineStr"/>
       <c r="B270" t="inlineStr">
         <is>
-          <t>メッセージラベル表示</t>
+          <t>センター表示</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>Message ID display</t>
+          <t>Center display</t>
         </is>
       </c>
       <c r="D270" t="n">
@@ -7851,7 +7831,7 @@
       </c>
       <c r="H270" t="inlineStr">
         <is>
-          <t>OFF,ON</t>
+          <t>OFF,４分割,３分割</t>
         </is>
       </c>
     </row>
@@ -7859,12 +7839,12 @@
       <c r="A271" t="inlineStr"/>
       <c r="B271" t="inlineStr">
         <is>
-          <t>UILayoutリビルド検出</t>
+          <t>マテリアル表示</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>UI Layout Rebuild Check</t>
+          <t>Material display</t>
         </is>
       </c>
       <c r="D271" t="n">
@@ -7881,7 +7861,7 @@
       </c>
       <c r="H271" t="inlineStr">
         <is>
-          <t>OFF,ON,+ログ</t>
+          <t>OFF,ON</t>
         </is>
       </c>
     </row>
@@ -7889,12 +7869,12 @@
       <c r="A272" t="inlineStr"/>
       <c r="B272" t="inlineStr">
         <is>
-          <t>ビルドキャンバス表示</t>
+          <t>プロファイル表示</t>
         </is>
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>Build canvas display</t>
+          <t>Profile display</t>
         </is>
       </c>
       <c r="D272" t="n">
@@ -7911,7 +7891,7 @@
       </c>
       <c r="H272" t="inlineStr">
         <is>
-          <t>OFF,ON</t>
+          <t>OFF,Basic,Memory,GPU</t>
         </is>
       </c>
     </row>
@@ -7919,12 +7899,12 @@
       <c r="A273" t="inlineStr"/>
       <c r="B273" t="inlineStr">
         <is>
-          <t>&lt;デバッグモニタ</t>
+          <t>サウンド表示</t>
         </is>
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>DebugMonitor</t>
+          <t>Sound display</t>
         </is>
       </c>
       <c r="D273" t="n">
@@ -7939,18 +7919,22 @@
       <c r="G273" t="n">
         <v>1</v>
       </c>
-      <c r="H273" t="inlineStr"/>
+      <c r="H273" t="inlineStr">
+        <is>
+          <t>OFF,簡易,詳細</t>
+        </is>
+      </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr"/>
       <c r="B274" t="inlineStr">
         <is>
-          <t>&gt;拠点</t>
+          <t>警告自動表示</t>
         </is>
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>Base</t>
+          <t>Warning automatic display</t>
         </is>
       </c>
       <c r="D274" t="n">
@@ -7965,106 +7949,122 @@
       <c r="G274" t="n">
         <v>1</v>
       </c>
-      <c r="H274" t="inlineStr"/>
+      <c r="H274" t="inlineStr">
+        <is>
+          <t>OFF,左上,右上,左下,右下</t>
+        </is>
+      </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr"/>
       <c r="B275" t="inlineStr">
         <is>
-          <t>拠点制限人数</t>
+          <t>メッセージラベル表示</t>
         </is>
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>Max people in base</t>
+          <t>Message ID display</t>
         </is>
       </c>
       <c r="D275" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="E275" t="n">
         <v>0</v>
       </c>
       <c r="F275" t="n">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="G275" t="n">
         <v>1</v>
       </c>
-      <c r="H275" t="inlineStr"/>
+      <c r="H275" t="inlineStr">
+        <is>
+          <t>OFF,ON</t>
+        </is>
+      </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr"/>
       <c r="B276" t="inlineStr">
         <is>
-          <t>拠点紋章士人数</t>
+          <t>UILayoutリビルド検出</t>
         </is>
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>Emblems in base</t>
+          <t>UI Layout Rebuild Check</t>
         </is>
       </c>
       <c r="D276" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E276" t="n">
         <v>0</v>
       </c>
       <c r="F276" t="n">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="G276" t="n">
         <v>1</v>
       </c>
-      <c r="H276" t="inlineStr"/>
+      <c r="H276" t="inlineStr">
+        <is>
+          <t>OFF,ON,+ログ</t>
+        </is>
+      </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr"/>
       <c r="B277" t="inlineStr">
         <is>
-          <t>絆リザルト制限人数</t>
+          <t>ビルドキャンバス表示</t>
         </is>
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>Bond result max people</t>
+          <t>Build canvas display</t>
         </is>
       </c>
       <c r="D277" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="E277" t="n">
         <v>0</v>
       </c>
       <c r="F277" t="n">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="G277" t="n">
         <v>1</v>
       </c>
-      <c r="H277" t="inlineStr"/>
+      <c r="H277" t="inlineStr">
+        <is>
+          <t>OFF,ON</t>
+        </is>
+      </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr"/>
       <c r="B278" t="inlineStr">
         <is>
-          <t>動物制限数</t>
+          <t>&lt;デバッグモニタ</t>
         </is>
       </c>
       <c r="C278" t="inlineStr">
         <is>
-          <t>Animal max num</t>
+          <t>DebugMonitor</t>
         </is>
       </c>
       <c r="D278" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E278" t="n">
         <v>0</v>
       </c>
       <c r="F278" t="n">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="G278" t="n">
         <v>1</v>
@@ -8075,22 +8075,22 @@
       <c r="A279" t="inlineStr"/>
       <c r="B279" t="inlineStr">
         <is>
-          <t>拠点マスコットなつき度上限</t>
+          <t>&gt;拠点</t>
         </is>
       </c>
       <c r="C279" t="inlineStr">
         <is>
-          <t>Base mascot turn limit num</t>
+          <t>Base</t>
         </is>
       </c>
       <c r="D279" t="n">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="E279" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F279" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G279" t="n">
         <v>1</v>
@@ -8101,115 +8101,103 @@
       <c r="A280" t="inlineStr"/>
       <c r="B280" t="inlineStr">
         <is>
-          <t>拠点カメラ押出処理</t>
+          <t>拠点制限人数</t>
         </is>
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t>Base camera extrusion disposal</t>
+          <t>Max people in base</t>
         </is>
       </c>
       <c r="D280" t="n">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="E280" t="n">
         <v>0</v>
       </c>
       <c r="F280" t="n">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="G280" t="n">
         <v>1</v>
       </c>
-      <c r="H280" t="inlineStr">
-        <is>
-          <t>OFF,ON</t>
-        </is>
-      </c>
+      <c r="H280" t="inlineStr"/>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr"/>
       <c r="B281" t="inlineStr">
         <is>
-          <t>拠点カメラサブ押出処理</t>
+          <t>拠点紋章士人数</t>
         </is>
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>Base camera sub extrusion disposal</t>
+          <t>Emblems in base</t>
         </is>
       </c>
       <c r="D281" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E281" t="n">
         <v>0</v>
       </c>
       <c r="F281" t="n">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="G281" t="n">
         <v>1</v>
       </c>
-      <c r="H281" t="inlineStr">
-        <is>
-          <t>OFF,ON</t>
-        </is>
-      </c>
+      <c r="H281" t="inlineStr"/>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr"/>
       <c r="B282" t="inlineStr">
         <is>
-          <t>拠点カメラ高さ押出処理</t>
+          <t>絆リザルト制限人数</t>
         </is>
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t>Base camera altitude extrusion disposal</t>
+          <t>Bond result max people</t>
         </is>
       </c>
       <c r="D282" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="E282" t="n">
         <v>0</v>
       </c>
       <c r="F282" t="n">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="G282" t="n">
         <v>1</v>
       </c>
-      <c r="H282" t="inlineStr">
-        <is>
-          <t>OFF,ON</t>
-        </is>
-      </c>
+      <c r="H282" t="inlineStr"/>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr"/>
       <c r="B283" t="inlineStr">
         <is>
-          <t>拠点カメラ押し出し半径</t>
+          <t>動物制限数</t>
         </is>
       </c>
       <c r="C283" t="inlineStr">
         <is>
-          <t>Base camera extrusion radius</t>
+          <t>Animal max num</t>
         </is>
       </c>
       <c r="D283" t="n">
-        <v>0.2</v>
+        <v>10</v>
       </c>
       <c r="E283" t="n">
         <v>0</v>
       </c>
       <c r="F283" t="n">
-        <v>1</v>
+        <v>99</v>
       </c>
       <c r="G283" t="n">
-        <v>0.01</v>
+        <v>1</v>
       </c>
       <c r="H283" t="inlineStr"/>
     </row>
@@ -8217,25 +8205,25 @@
       <c r="A284" t="inlineStr"/>
       <c r="B284" t="inlineStr">
         <is>
-          <t>拠点カメラ押し出し時間</t>
+          <t>拠点マスコットなつき度上限</t>
         </is>
       </c>
       <c r="C284" t="inlineStr">
         <is>
-          <t>Base camera extrusion time</t>
+          <t>Base mascot turn limit num</t>
         </is>
       </c>
       <c r="D284" t="n">
-        <v>0.15</v>
+        <v>35</v>
       </c>
       <c r="E284" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F284" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="G284" t="n">
-        <v>0.01</v>
+        <v>1</v>
       </c>
       <c r="H284" t="inlineStr"/>
     </row>
@@ -8243,12 +8231,12 @@
       <c r="A285" t="inlineStr"/>
       <c r="B285" t="inlineStr">
         <is>
-          <t>拠点カメラ高さ補正</t>
+          <t>拠点カメラ押出処理</t>
         </is>
       </c>
       <c r="C285" t="inlineStr">
         <is>
-          <t>Base camera altitude correction</t>
+          <t>Base camera extrusion disposal</t>
         </is>
       </c>
       <c r="D285" t="n">
@@ -8273,38 +8261,42 @@
       <c r="A286" t="inlineStr"/>
       <c r="B286" t="inlineStr">
         <is>
-          <t>拠点カメラ高さ補正時間</t>
+          <t>拠点カメラサブ押出処理</t>
         </is>
       </c>
       <c r="C286" t="inlineStr">
         <is>
-          <t>Base camera altitude correction time</t>
+          <t>Base camera sub extrusion disposal</t>
         </is>
       </c>
       <c r="D286" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E286" t="n">
         <v>0</v>
       </c>
       <c r="F286" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G286" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="H286" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="H286" t="inlineStr">
+        <is>
+          <t>OFF,ON</t>
+        </is>
+      </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr"/>
       <c r="B287" t="inlineStr">
         <is>
-          <t>拠点カメラ補間時間</t>
+          <t>拠点カメラ高さ押出処理</t>
         </is>
       </c>
       <c r="C287" t="inlineStr">
         <is>
-          <t>Base camera interpolation time</t>
+          <t>Base camera altitude extrusion disposal</t>
         </is>
       </c>
       <c r="D287" t="n">
@@ -8314,36 +8306,40 @@
         <v>0</v>
       </c>
       <c r="F287" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G287" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="H287" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="H287" t="inlineStr">
+        <is>
+          <t>OFF,ON</t>
+        </is>
+      </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr"/>
       <c r="B288" t="inlineStr">
         <is>
-          <t>拠点カメラ距離補間時間</t>
+          <t>拠点カメラ押し出し半径</t>
         </is>
       </c>
       <c r="C288" t="inlineStr">
         <is>
-          <t>Base camera distance interpolation time</t>
+          <t>Base camera extrusion radius</t>
         </is>
       </c>
       <c r="D288" t="n">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="E288" t="n">
         <v>0</v>
       </c>
       <c r="F288" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G288" t="n">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="H288" t="inlineStr"/>
     </row>
@@ -8351,98 +8347,94 @@
       <c r="A289" t="inlineStr"/>
       <c r="B289" t="inlineStr">
         <is>
-          <t>拠点コリジョン情報</t>
+          <t>拠点カメラ押し出し時間</t>
         </is>
       </c>
       <c r="C289" t="inlineStr">
         <is>
-          <t>Base collision info</t>
+          <t>Base camera extrusion time</t>
         </is>
       </c>
       <c r="D289" t="n">
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="E289" t="n">
         <v>0</v>
       </c>
       <c r="F289" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G289" t="n">
-        <v>1</v>
-      </c>
-      <c r="H289" t="inlineStr">
-        <is>
-          <t>OFF,表示,選択</t>
-        </is>
-      </c>
+        <v>0.01</v>
+      </c>
+      <c r="H289" t="inlineStr"/>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr"/>
       <c r="B290" t="inlineStr">
         <is>
-          <t>拠点キャラ回転傾き</t>
+          <t>拠点カメラ高さ補正</t>
         </is>
       </c>
       <c r="C290" t="inlineStr">
         <is>
-          <t>Base characters tilt rotation</t>
+          <t>Base camera altitude correction</t>
         </is>
       </c>
       <c r="D290" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E290" t="n">
         <v>0</v>
       </c>
       <c r="F290" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="G290" t="n">
         <v>1</v>
       </c>
-      <c r="H290" t="inlineStr"/>
+      <c r="H290" t="inlineStr">
+        <is>
+          <t>OFF,ON</t>
+        </is>
+      </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr"/>
       <c r="B291" t="inlineStr">
         <is>
-          <t>拠点キャラ高さ補間</t>
+          <t>拠点カメラ高さ補正時間</t>
         </is>
       </c>
       <c r="C291" t="inlineStr">
         <is>
-          <t>Base characters height lerp</t>
+          <t>Base camera altitude correction time</t>
         </is>
       </c>
       <c r="D291" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E291" t="n">
         <v>0</v>
       </c>
       <c r="F291" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G291" t="n">
-        <v>1</v>
-      </c>
-      <c r="H291" t="inlineStr">
-        <is>
-          <t>OFF,ON</t>
-        </is>
-      </c>
+        <v>0.1</v>
+      </c>
+      <c r="H291" t="inlineStr"/>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr"/>
       <c r="B292" t="inlineStr">
         <is>
-          <t>拠点操作タイプ</t>
+          <t>拠点カメラ補間時間</t>
         </is>
       </c>
       <c r="C292" t="inlineStr">
         <is>
-          <t>Base control type</t>
+          <t>Base camera interpolation time</t>
         </is>
       </c>
       <c r="D292" t="n">
@@ -8455,7 +8447,7 @@
         <v>3</v>
       </c>
       <c r="G292" t="n">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="H292" t="inlineStr"/>
     </row>
@@ -8463,25 +8455,25 @@
       <c r="A293" t="inlineStr"/>
       <c r="B293" t="inlineStr">
         <is>
-          <t>拠点カメラ上下角度幅</t>
+          <t>拠点カメラ距離補間時間</t>
         </is>
       </c>
       <c r="C293" t="inlineStr">
         <is>
-          <t>Base camera Y angle range</t>
+          <t>Base camera distance interpolation time</t>
         </is>
       </c>
       <c r="D293" t="n">
-        <v>60</v>
+        <v>0.5</v>
       </c>
       <c r="E293" t="n">
         <v>0</v>
       </c>
       <c r="F293" t="n">
-        <v>90</v>
+        <v>3</v>
       </c>
       <c r="G293" t="n">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="H293" t="inlineStr"/>
     </row>
@@ -8489,51 +8481,55 @@
       <c r="A294" t="inlineStr"/>
       <c r="B294" t="inlineStr">
         <is>
-          <t>拠点カメラ上下角度遊び幅</t>
+          <t>拠点コリジョン情報</t>
         </is>
       </c>
       <c r="C294" t="inlineStr">
         <is>
-          <t>Base camera Y angle free range</t>
+          <t>Base collision info</t>
         </is>
       </c>
       <c r="D294" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E294" t="n">
         <v>0</v>
       </c>
       <c r="F294" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="G294" t="n">
         <v>1</v>
       </c>
-      <c r="H294" t="inlineStr"/>
+      <c r="H294" t="inlineStr">
+        <is>
+          <t>OFF,表示,選択</t>
+        </is>
+      </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr"/>
       <c r="B295" t="inlineStr">
         <is>
-          <t>拠点カメラ下限高さ</t>
+          <t>拠点キャラ回転傾き</t>
         </is>
       </c>
       <c r="C295" t="inlineStr">
         <is>
-          <t>Base camera limit height</t>
+          <t>Base characters tilt rotation</t>
         </is>
       </c>
       <c r="D295" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E295" t="n">
         <v>0</v>
       </c>
       <c r="F295" t="n">
-        <v>3</v>
+        <v>80</v>
       </c>
       <c r="G295" t="n">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="H295" t="inlineStr"/>
     </row>
@@ -8541,16 +8537,16 @@
       <c r="A296" t="inlineStr"/>
       <c r="B296" t="inlineStr">
         <is>
-          <t>拠点ミニマップ回転</t>
+          <t>拠点キャラ高さ補間</t>
         </is>
       </c>
       <c r="C296" t="inlineStr">
         <is>
-          <t>Base minimap rotate</t>
+          <t>Base characters height lerp</t>
         </is>
       </c>
       <c r="D296" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E296" t="n">
         <v>0</v>
@@ -8571,22 +8567,22 @@
       <c r="A297" t="inlineStr"/>
       <c r="B297" t="inlineStr">
         <is>
-          <t>闘技場:回数制限</t>
+          <t>拠点操作タイプ</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
         <is>
-          <t>Arena:Battle Limmit</t>
+          <t>Base control type</t>
         </is>
       </c>
       <c r="D297" t="n">
+        <v>0</v>
+      </c>
+      <c r="E297" t="n">
+        <v>0</v>
+      </c>
+      <c r="F297" t="n">
         <v>3</v>
-      </c>
-      <c r="E297" t="n">
-        <v>0</v>
-      </c>
-      <c r="F297" t="n">
-        <v>1000</v>
       </c>
       <c r="G297" t="n">
         <v>1</v>
@@ -8597,22 +8593,22 @@
       <c r="A298" t="inlineStr"/>
       <c r="B298" t="inlineStr">
         <is>
-          <t>闘技場:支援値(仲間・勝利)</t>
+          <t>拠点カメラ上下角度幅</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
         <is>
-          <t>Arena:Reliance(win)</t>
+          <t>Base camera Y angle range</t>
         </is>
       </c>
       <c r="D298" t="n">
-        <v>5</v>
+        <v>60</v>
       </c>
       <c r="E298" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F298" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="G298" t="n">
         <v>1</v>
@@ -8623,22 +8619,22 @@
       <c r="A299" t="inlineStr"/>
       <c r="B299" t="inlineStr">
         <is>
-          <t>闘技場:支援値(仲間・引分)</t>
+          <t>拠点カメラ上下角度遊び幅</t>
         </is>
       </c>
       <c r="C299" t="inlineStr">
         <is>
-          <t>Arena:Reliance(draw)</t>
+          <t>Base camera Y angle free range</t>
         </is>
       </c>
       <c r="D299" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E299" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F299" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="G299" t="n">
         <v>1</v>
@@ -8649,25 +8645,25 @@
       <c r="A300" t="inlineStr"/>
       <c r="B300" t="inlineStr">
         <is>
-          <t>闘技場:支援値(仲間・敗北)</t>
+          <t>拠点カメラ下限高さ</t>
         </is>
       </c>
       <c r="C300" t="inlineStr">
         <is>
-          <t>Arena:Reliance(Lose)</t>
+          <t>Base camera limit height</t>
         </is>
       </c>
       <c r="D300" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E300" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F300" t="n">
-        <v>100</v>
+        <v>3</v>
       </c>
       <c r="G300" t="n">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="H300" t="inlineStr"/>
     </row>
@@ -8675,48 +8671,52 @@
       <c r="A301" t="inlineStr"/>
       <c r="B301" t="inlineStr">
         <is>
-          <t>闘技場:絆値(紋章・勝利)</t>
+          <t>拠点ミニマップ回転</t>
         </is>
       </c>
       <c r="C301" t="inlineStr">
         <is>
-          <t>Arena:Bond(win)</t>
+          <t>Base minimap rotate</t>
         </is>
       </c>
       <c r="D301" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E301" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F301" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G301" t="n">
         <v>1</v>
       </c>
-      <c r="H301" t="inlineStr"/>
+      <c r="H301" t="inlineStr">
+        <is>
+          <t>OFF,ON</t>
+        </is>
+      </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr"/>
       <c r="B302" t="inlineStr">
         <is>
-          <t>闘技場:絆値(紋章・引分)</t>
+          <t>闘技場:回数制限</t>
         </is>
       </c>
       <c r="C302" t="inlineStr">
         <is>
-          <t>Arena:Bond(draw)</t>
+          <t>Arena:Battle Limmit</t>
         </is>
       </c>
       <c r="D302" t="n">
         <v>3</v>
       </c>
       <c r="E302" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F302" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="G302" t="n">
         <v>1</v>
@@ -8727,16 +8727,16 @@
       <c r="A303" t="inlineStr"/>
       <c r="B303" t="inlineStr">
         <is>
-          <t>闘技場:絆値(紋章・敗北)</t>
+          <t>闘技場:支援値(仲間・勝利)</t>
         </is>
       </c>
       <c r="C303" t="inlineStr">
         <is>
-          <t>Arena:Bond(Lose)</t>
+          <t>Arena:Reliance(win)</t>
         </is>
       </c>
       <c r="D303" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E303" t="n">
         <v>1</v>
@@ -8753,25 +8753,25 @@
       <c r="A304" t="inlineStr"/>
       <c r="B304" t="inlineStr">
         <is>
-          <t>闘技場：紋章士戦確率</t>
+          <t>闘技場:支援値(仲間・引分)</t>
         </is>
       </c>
       <c r="C304" t="inlineStr">
         <is>
-          <t>Arena:Rate of 'VS Emblem'</t>
+          <t>Arena:Reliance(draw)</t>
         </is>
       </c>
       <c r="D304" t="n">
-        <v>0.05</v>
+        <v>5</v>
       </c>
       <c r="E304" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F304" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="G304" t="n">
-        <v>0.01</v>
+        <v>1</v>
       </c>
       <c r="H304" t="inlineStr"/>
     </row>
@@ -8779,22 +8779,22 @@
       <c r="A305" t="inlineStr"/>
       <c r="B305" t="inlineStr">
         <is>
-          <t>闘技場：戦闘相手選択乱数固定</t>
+          <t>闘技場:支援値(仲間・敗北)</t>
         </is>
       </c>
       <c r="C305" t="inlineStr">
         <is>
-          <t>Arena:Fix random numbers of chara choice</t>
+          <t>Arena:Reliance(Lose)</t>
         </is>
       </c>
       <c r="D305" t="n">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="E305" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="F305" t="n">
-        <v>9999</v>
+        <v>100</v>
       </c>
       <c r="G305" t="n">
         <v>1</v>
@@ -8805,22 +8805,22 @@
       <c r="A306" t="inlineStr"/>
       <c r="B306" t="inlineStr">
         <is>
-          <t>闘技場：武器乱数固定</t>
+          <t>闘技場:絆値(紋章・勝利)</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
         <is>
-          <t>Arena:Fix random numbers of weapon choice</t>
+          <t>Arena:Bond(win)</t>
         </is>
       </c>
       <c r="D306" t="n">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="E306" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="F306" t="n">
-        <v>9999</v>
+        <v>100</v>
       </c>
       <c r="G306" t="n">
         <v>1</v>
@@ -8831,25 +8831,25 @@
       <c r="A307" t="inlineStr"/>
       <c r="B307" t="inlineStr">
         <is>
-          <t>DSジャイロ感度</t>
+          <t>闘技場:絆値(紋章・引分)</t>
         </is>
       </c>
       <c r="C307" t="inlineStr">
         <is>
-          <t>DS gyro sensitivity</t>
+          <t>Arena:Bond(draw)</t>
         </is>
       </c>
       <c r="D307" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E307" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="F307" t="n">
-        <v>3</v>
+        <v>100</v>
       </c>
       <c r="G307" t="n">
-        <v>0.01</v>
+        <v>1</v>
       </c>
       <c r="H307" t="inlineStr"/>
     </row>
@@ -8857,16 +8857,16 @@
       <c r="A308" t="inlineStr"/>
       <c r="B308" t="inlineStr">
         <is>
-          <t>スタンプ：移動量</t>
+          <t>闘技場:絆値(紋章・敗北)</t>
         </is>
       </c>
       <c r="C308" t="inlineStr">
         <is>
-          <t>Stamp: speed</t>
+          <t>Arena:Bond(Lose)</t>
         </is>
       </c>
       <c r="D308" t="n">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="E308" t="n">
         <v>1</v>
@@ -8883,25 +8883,25 @@
       <c r="A309" t="inlineStr"/>
       <c r="B309" t="inlineStr">
         <is>
-          <t>スタンプ：回転量</t>
+          <t>闘技場：紋章士戦確率</t>
         </is>
       </c>
       <c r="C309" t="inlineStr">
         <is>
-          <t>Stamp: rotation per frame</t>
+          <t>Arena:Rate of 'VS Emblem'</t>
         </is>
       </c>
       <c r="D309" t="n">
-        <v>6</v>
+        <v>0.05</v>
       </c>
       <c r="E309" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F309" t="n">
-        <v>90</v>
+        <v>1</v>
       </c>
       <c r="G309" t="n">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="H309" t="inlineStr"/>
     </row>
@@ -8909,25 +8909,25 @@
       <c r="A310" t="inlineStr"/>
       <c r="B310" t="inlineStr">
         <is>
-          <t>スタンプ：拡縮量</t>
+          <t>闘技場：戦闘相手選択乱数固定</t>
         </is>
       </c>
       <c r="C310" t="inlineStr">
         <is>
-          <t>Stamp: scaling per frame</t>
+          <t>Arena:Fix random numbers of chara choice</t>
         </is>
       </c>
       <c r="D310" t="n">
-        <v>0.05</v>
+        <v>-1</v>
       </c>
       <c r="E310" t="n">
-        <v>0.01</v>
+        <v>-1</v>
       </c>
       <c r="F310" t="n">
-        <v>1</v>
+        <v>9999</v>
       </c>
       <c r="G310" t="n">
-        <v>0.01</v>
+        <v>1</v>
       </c>
       <c r="H310" t="inlineStr"/>
     </row>
@@ -8935,25 +8935,25 @@
       <c r="A311" t="inlineStr"/>
       <c r="B311" t="inlineStr">
         <is>
-          <t>スタンプ：拡縮最小</t>
+          <t>闘技場：武器乱数固定</t>
         </is>
       </c>
       <c r="C311" t="inlineStr">
         <is>
-          <t>Stamp: scaling min</t>
+          <t>Arena:Fix random numbers of weapon choice</t>
         </is>
       </c>
       <c r="D311" t="n">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="E311" t="n">
-        <v>0.1</v>
+        <v>-1</v>
       </c>
       <c r="F311" t="n">
-        <v>10</v>
+        <v>9999</v>
       </c>
       <c r="G311" t="n">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="H311" t="inlineStr"/>
     </row>
@@ -8961,25 +8961,25 @@
       <c r="A312" t="inlineStr"/>
       <c r="B312" t="inlineStr">
         <is>
-          <t>スタンプ：拡縮最大</t>
+          <t>DSジャイロ感度</t>
         </is>
       </c>
       <c r="C312" t="inlineStr">
         <is>
-          <t>Stamp: scaling max</t>
+          <t>DS gyro sensitivity</t>
         </is>
       </c>
       <c r="D312" t="n">
         <v>2</v>
       </c>
       <c r="E312" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="F312" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="G312" t="n">
-        <v>0.1</v>
+        <v>0.01</v>
       </c>
       <c r="H312" t="inlineStr"/>
     </row>
@@ -8987,25 +8987,25 @@
       <c r="A313" t="inlineStr"/>
       <c r="B313" t="inlineStr">
         <is>
-          <t>スタンプ：スティック移動倍率</t>
+          <t>スタンプ：移動量</t>
         </is>
       </c>
       <c r="C313" t="inlineStr">
         <is>
-          <t>Stamp: stick rate of speed up</t>
+          <t>Stamp: speed</t>
         </is>
       </c>
       <c r="D313" t="n">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="E313" t="n">
         <v>1</v>
       </c>
       <c r="F313" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="G313" t="n">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="H313" t="inlineStr"/>
     </row>
@@ -9013,22 +9013,22 @@
       <c r="A314" t="inlineStr"/>
       <c r="B314" t="inlineStr">
         <is>
-          <t>スタンプ：十字キー移動倍率</t>
+          <t>スタンプ：回転量</t>
         </is>
       </c>
       <c r="C314" t="inlineStr">
         <is>
-          <t>Stamp: arrow key rate of speed up</t>
+          <t>Stamp: rotation per frame</t>
         </is>
       </c>
       <c r="D314" t="n">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="E314" t="n">
         <v>1</v>
       </c>
       <c r="F314" t="n">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="G314" t="n">
         <v>1</v>
@@ -9039,25 +9039,25 @@
       <c r="A315" t="inlineStr"/>
       <c r="B315" t="inlineStr">
         <is>
-          <t>スタンプ：左スティック遊び</t>
+          <t>スタンプ：拡縮量</t>
         </is>
       </c>
       <c r="C315" t="inlineStr">
         <is>
-          <t xml:space="preserve">Stamp: free range of Left stick </t>
+          <t>Stamp: scaling per frame</t>
         </is>
       </c>
       <c r="D315" t="n">
-        <v>0.125</v>
+        <v>0.05</v>
       </c>
       <c r="E315" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="F315" t="n">
         <v>1</v>
       </c>
       <c r="G315" t="n">
-        <v>0.005</v>
+        <v>0.01</v>
       </c>
       <c r="H315" t="inlineStr"/>
     </row>
@@ -9065,25 +9065,25 @@
       <c r="A316" t="inlineStr"/>
       <c r="B316" t="inlineStr">
         <is>
-          <t>スタンプ：右スティック遊び</t>
+          <t>スタンプ：拡縮最小</t>
         </is>
       </c>
       <c r="C316" t="inlineStr">
         <is>
-          <t>Stamp: free range of Right stick</t>
+          <t>Stamp: scaling min</t>
         </is>
       </c>
       <c r="D316" t="n">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="E316" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="F316" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="G316" t="n">
-        <v>0.005</v>
+        <v>0.1</v>
       </c>
       <c r="H316" t="inlineStr"/>
     </row>
@@ -9091,22 +9091,22 @@
       <c r="A317" t="inlineStr"/>
       <c r="B317" t="inlineStr">
         <is>
-          <t>写真撮影：Y加速倍率</t>
+          <t>スタンプ：拡縮最大</t>
         </is>
       </c>
       <c r="C317" t="inlineStr">
         <is>
-          <t>写真撮影：Y加速倍率</t>
+          <t>Stamp: scaling max</t>
         </is>
       </c>
       <c r="D317" t="n">
         <v>2</v>
       </c>
       <c r="E317" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F317" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G317" t="n">
         <v>0.1</v>
@@ -9117,25 +9117,25 @@
       <c r="A318" t="inlineStr"/>
       <c r="B318" t="inlineStr">
         <is>
-          <t>写真撮影：カメラ横移動速度</t>
+          <t>スタンプ：スティック移動倍率</t>
         </is>
       </c>
       <c r="C318" t="inlineStr">
         <is>
-          <t>写真撮影：カメラ横移動速度</t>
+          <t>Stamp: stick rate of speed up</t>
         </is>
       </c>
       <c r="D318" t="n">
+        <v>2</v>
+      </c>
+      <c r="E318" t="n">
+        <v>1</v>
+      </c>
+      <c r="F318" t="n">
+        <v>10</v>
+      </c>
+      <c r="G318" t="n">
         <v>0.1</v>
-      </c>
-      <c r="E318" t="n">
-        <v>0</v>
-      </c>
-      <c r="F318" t="n">
-        <v>1</v>
-      </c>
-      <c r="G318" t="n">
-        <v>0.01</v>
       </c>
       <c r="H318" t="inlineStr"/>
     </row>
@@ -9143,25 +9143,25 @@
       <c r="A319" t="inlineStr"/>
       <c r="B319" t="inlineStr">
         <is>
-          <t>写真撮影：カメラ縦移動速度</t>
+          <t>スタンプ：十字キー移動倍率</t>
         </is>
       </c>
       <c r="C319" t="inlineStr">
         <is>
-          <t>写真撮影：カメラ縦移動速度</t>
+          <t>Stamp: arrow key rate of speed up</t>
         </is>
       </c>
       <c r="D319" t="n">
-        <v>0.07000000000000001</v>
+        <v>15</v>
       </c>
       <c r="E319" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F319" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="G319" t="n">
-        <v>0.01</v>
+        <v>1</v>
       </c>
       <c r="H319" t="inlineStr"/>
     </row>
@@ -9169,16 +9169,16 @@
       <c r="A320" t="inlineStr"/>
       <c r="B320" t="inlineStr">
         <is>
-          <t>写真撮影：スティック遊び</t>
+          <t>スタンプ：左スティック遊び</t>
         </is>
       </c>
       <c r="C320" t="inlineStr">
         <is>
-          <t>写真撮影：スティック遊び</t>
+          <t xml:space="preserve">Stamp: free range of Left stick </t>
         </is>
       </c>
       <c r="D320" t="n">
-        <v>0.1</v>
+        <v>0.125</v>
       </c>
       <c r="E320" t="n">
         <v>0</v>
@@ -9187,7 +9187,7 @@
         <v>1</v>
       </c>
       <c r="G320" t="n">
-        <v>0.01</v>
+        <v>0.005</v>
       </c>
       <c r="H320" t="inlineStr"/>
     </row>
@@ -9195,25 +9195,25 @@
       <c r="A321" t="inlineStr"/>
       <c r="B321" t="inlineStr">
         <is>
-          <t>写真撮影：カメラ回転速度</t>
+          <t>スタンプ：右スティック遊び</t>
         </is>
       </c>
       <c r="C321" t="inlineStr">
         <is>
-          <t>写真撮影：カメラ回転速度</t>
+          <t>Stamp: free range of Right stick</t>
         </is>
       </c>
       <c r="D321" t="n">
-        <v>1.5</v>
+        <v>0.25</v>
       </c>
       <c r="E321" t="n">
         <v>0</v>
       </c>
       <c r="F321" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G321" t="n">
-        <v>0.1</v>
+        <v>0.005</v>
       </c>
       <c r="H321" t="inlineStr"/>
     </row>
@@ -9221,22 +9221,22 @@
       <c r="A322" t="inlineStr"/>
       <c r="B322" t="inlineStr">
         <is>
-          <t>写真撮影：カメラズーム速度</t>
+          <t>写真撮影：Y加速倍率</t>
         </is>
       </c>
       <c r="C322" t="inlineStr">
         <is>
-          <t>写真撮影：カメラズーム速度</t>
+          <t>写真撮影：Y加速倍率</t>
         </is>
       </c>
       <c r="D322" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="E322" t="n">
         <v>0</v>
       </c>
       <c r="F322" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G322" t="n">
         <v>0.1</v>
@@ -9247,25 +9247,25 @@
       <c r="A323" t="inlineStr"/>
       <c r="B323" t="inlineStr">
         <is>
-          <t>&lt;拠点</t>
+          <t>写真撮影：カメラ横移動速度</t>
         </is>
       </c>
       <c r="C323" t="inlineStr">
         <is>
-          <t>Base</t>
+          <t>写真撮影：カメラ横移動速度</t>
         </is>
       </c>
       <c r="D323" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="E323" t="n">
         <v>0</v>
       </c>
       <c r="F323" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G323" t="n">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="H323" t="inlineStr"/>
     </row>
@@ -9273,25 +9273,25 @@
       <c r="A324" t="inlineStr"/>
       <c r="B324" t="inlineStr">
         <is>
-          <t>&gt;通信</t>
+          <t>写真撮影：カメラ縦移動速度</t>
         </is>
       </c>
       <c r="C324" t="inlineStr">
         <is>
-          <t>Online</t>
+          <t>写真撮影：カメラ縦移動速度</t>
         </is>
       </c>
       <c r="D324" t="n">
-        <v>0</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E324" t="n">
         <v>0</v>
       </c>
       <c r="F324" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G324" t="n">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="H324" t="inlineStr"/>
     </row>
@@ -9299,25 +9299,25 @@
       <c r="A325" t="inlineStr"/>
       <c r="B325" t="inlineStr">
         <is>
-          <t>本格対戦：攻撃側出撃人数</t>
+          <t>写真撮影：スティック遊び</t>
         </is>
       </c>
       <c r="C325" t="inlineStr">
         <is>
-          <t>CustomBattle:OffenseSortieMax</t>
+          <t>写真撮影：スティック遊び</t>
         </is>
       </c>
       <c r="D325" t="n">
-        <v>8</v>
+        <v>0.1</v>
       </c>
       <c r="E325" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F325" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="G325" t="n">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="H325" t="inlineStr"/>
     </row>
@@ -9325,25 +9325,25 @@
       <c r="A326" t="inlineStr"/>
       <c r="B326" t="inlineStr">
         <is>
-          <t>本格対戦：防衛側出撃人数</t>
+          <t>写真撮影：カメラ回転速度</t>
         </is>
       </c>
       <c r="C326" t="inlineStr">
         <is>
-          <t>CustomBattle:DefenseSortieMax</t>
+          <t>写真撮影：カメラ回転速度</t>
         </is>
       </c>
       <c r="D326" t="n">
-        <v>12</v>
+        <v>1.5</v>
       </c>
       <c r="E326" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F326" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="G326" t="n">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="H326" t="inlineStr"/>
     </row>
@@ -9351,25 +9351,25 @@
       <c r="A327" t="inlineStr"/>
       <c r="B327" t="inlineStr">
         <is>
-          <t>&lt;通信</t>
+          <t>写真撮影：カメラズーム速度</t>
         </is>
       </c>
       <c r="C327" t="inlineStr">
         <is>
-          <t>Online</t>
+          <t>写真撮影：カメラズーム速度</t>
         </is>
       </c>
       <c r="D327" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="E327" t="n">
         <v>0</v>
       </c>
       <c r="F327" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G327" t="n">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="H327" t="inlineStr"/>
     </row>
@@ -9377,12 +9377,12 @@
       <c r="A328" t="inlineStr"/>
       <c r="B328" t="inlineStr">
         <is>
-          <t>&gt;エンディング</t>
+          <t>&lt;拠点</t>
         </is>
       </c>
       <c r="C328" t="inlineStr">
         <is>
-          <t>Ending</t>
+          <t>Base</t>
         </is>
       </c>
       <c r="D328" t="n">
@@ -9403,12 +9403,12 @@
       <c r="A329" t="inlineStr"/>
       <c r="B329" t="inlineStr">
         <is>
-          <t>戦績：デバッグ用外伝クリア数</t>
+          <t>&gt;通信</t>
         </is>
       </c>
       <c r="C329" t="inlineStr">
         <is>
-          <t>BattleRecord：Record Count 4 Debug</t>
+          <t>Online</t>
         </is>
       </c>
       <c r="D329" t="n">
@@ -9418,7 +9418,7 @@
         <v>0</v>
       </c>
       <c r="F329" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="G329" t="n">
         <v>1</v>
@@ -9429,25 +9429,25 @@
       <c r="A330" t="inlineStr"/>
       <c r="B330" t="inlineStr">
         <is>
-          <t>戦績：BGM開始～FI開始</t>
+          <t>本格対戦：攻撃側出撃人数</t>
         </is>
       </c>
       <c r="C330" t="inlineStr">
         <is>
-          <t>BattleRecord：Time Settng</t>
+          <t>CustomBattle:OffenseSortieMax</t>
         </is>
       </c>
       <c r="D330" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E330" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F330" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="G330" t="n">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="H330" t="inlineStr"/>
     </row>
@@ -9455,25 +9455,25 @@
       <c r="A331" t="inlineStr"/>
       <c r="B331" t="inlineStr">
         <is>
-          <t>戦績：FI時間</t>
+          <t>本格対戦：防衛側出撃人数</t>
         </is>
       </c>
       <c r="C331" t="inlineStr">
         <is>
-          <t>BattleRecord：Time Settng</t>
+          <t>CustomBattle:DefenseSortieMax</t>
         </is>
       </c>
       <c r="D331" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="E331" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F331" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="G331" t="n">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="H331" t="inlineStr"/>
     </row>
@@ -9481,25 +9481,25 @@
       <c r="A332" t="inlineStr"/>
       <c r="B332" t="inlineStr">
         <is>
-          <t>戦績：開始座標</t>
+          <t>&lt;通信</t>
         </is>
       </c>
       <c r="C332" t="inlineStr">
         <is>
-          <t>BattleRecord：Time Settng</t>
+          <t>Online</t>
         </is>
       </c>
       <c r="D332" t="n">
-        <v>-560</v>
+        <v>0</v>
       </c>
       <c r="E332" t="n">
-        <v>-700</v>
+        <v>0</v>
       </c>
       <c r="F332" t="n">
-        <v>-400</v>
+        <v>0</v>
       </c>
       <c r="G332" t="n">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="H332" t="inlineStr"/>
     </row>
@@ -9507,25 +9507,25 @@
       <c r="A333" t="inlineStr"/>
       <c r="B333" t="inlineStr">
         <is>
-          <t>戦績：BGM時間0</t>
+          <t>&gt;エンディング</t>
         </is>
       </c>
       <c r="C333" t="inlineStr">
         <is>
-          <t>BattleRecord：Time Settng</t>
+          <t>Ending</t>
         </is>
       </c>
       <c r="D333" t="n">
-        <v>199</v>
+        <v>0</v>
       </c>
       <c r="E333" t="n">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="F333" t="n">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="G333" t="n">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="H333" t="inlineStr"/>
     </row>
@@ -9533,25 +9533,25 @@
       <c r="A334" t="inlineStr"/>
       <c r="B334" t="inlineStr">
         <is>
-          <t>戦績：BGM時間1</t>
+          <t>戦績：デバッグ用外伝クリア数</t>
         </is>
       </c>
       <c r="C334" t="inlineStr">
         <is>
-          <t>BattleRecord：Time Settng</t>
+          <t>BattleRecord：Record Count 4 Debug</t>
         </is>
       </c>
       <c r="D334" t="n">
-        <v>229</v>
+        <v>0</v>
       </c>
       <c r="E334" t="n">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="F334" t="n">
-        <v>350</v>
+        <v>15</v>
       </c>
       <c r="G334" t="n">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="H334" t="inlineStr"/>
     </row>
@@ -9559,7 +9559,7 @@
       <c r="A335" t="inlineStr"/>
       <c r="B335" t="inlineStr">
         <is>
-          <t>戦績：BGM時間2</t>
+          <t>戦績：BGM開始～FI開始</t>
         </is>
       </c>
       <c r="C335" t="inlineStr">
@@ -9568,13 +9568,13 @@
         </is>
       </c>
       <c r="D335" t="n">
-        <v>277</v>
+        <v>0</v>
       </c>
       <c r="E335" t="n">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="F335" t="n">
-        <v>350</v>
+        <v>20</v>
       </c>
       <c r="G335" t="n">
         <v>0.1</v>
@@ -9585,7 +9585,7 @@
       <c r="A336" t="inlineStr"/>
       <c r="B336" t="inlineStr">
         <is>
-          <t>戦績：BGM時間3</t>
+          <t>戦績：FI時間</t>
         </is>
       </c>
       <c r="C336" t="inlineStr">
@@ -9594,13 +9594,13 @@
         </is>
       </c>
       <c r="D336" t="n">
-        <v>293</v>
+        <v>2</v>
       </c>
       <c r="E336" t="n">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="F336" t="n">
-        <v>350</v>
+        <v>20</v>
       </c>
       <c r="G336" t="n">
         <v>0.1</v>
@@ -9611,7 +9611,7 @@
       <c r="A337" t="inlineStr"/>
       <c r="B337" t="inlineStr">
         <is>
-          <t>戦績：BGM時間4</t>
+          <t>戦績：開始座標</t>
         </is>
       </c>
       <c r="C337" t="inlineStr">
@@ -9620,13 +9620,13 @@
         </is>
       </c>
       <c r="D337" t="n">
-        <v>325</v>
+        <v>-560</v>
       </c>
       <c r="E337" t="n">
-        <v>150</v>
+        <v>-700</v>
       </c>
       <c r="F337" t="n">
-        <v>400</v>
+        <v>-400</v>
       </c>
       <c r="G337" t="n">
         <v>0.1</v>
@@ -9637,7 +9637,7 @@
       <c r="A338" t="inlineStr"/>
       <c r="B338" t="inlineStr">
         <is>
-          <t>戦績：BGM時間5</t>
+          <t>戦績：BGM時間0</t>
         </is>
       </c>
       <c r="C338" t="inlineStr">
@@ -9646,13 +9646,13 @@
         </is>
       </c>
       <c r="D338" t="n">
-        <v>357</v>
+        <v>199</v>
       </c>
       <c r="E338" t="n">
         <v>150</v>
       </c>
       <c r="F338" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="G338" t="n">
         <v>0.1</v>
@@ -9663,7 +9663,7 @@
       <c r="A339" t="inlineStr"/>
       <c r="B339" t="inlineStr">
         <is>
-          <t>戦績：BGM時間6</t>
+          <t>戦績：BGM時間1</t>
         </is>
       </c>
       <c r="C339" t="inlineStr">
@@ -9672,13 +9672,13 @@
         </is>
       </c>
       <c r="D339" t="n">
-        <v>387</v>
+        <v>229</v>
       </c>
       <c r="E339" t="n">
         <v>150</v>
       </c>
       <c r="F339" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="G339" t="n">
         <v>0.1</v>
@@ -9689,7 +9689,7 @@
       <c r="A340" t="inlineStr"/>
       <c r="B340" t="inlineStr">
         <is>
-          <t>戦績：終了座標</t>
+          <t>戦績：BGM時間2</t>
         </is>
       </c>
       <c r="C340" t="inlineStr">
@@ -9698,13 +9698,13 @@
         </is>
       </c>
       <c r="D340" t="n">
-        <v>660</v>
+        <v>277</v>
       </c>
       <c r="E340" t="n">
-        <v>400</v>
+        <v>150</v>
       </c>
       <c r="F340" t="n">
-        <v>700</v>
+        <v>350</v>
       </c>
       <c r="G340" t="n">
         <v>0.1</v>
@@ -9715,7 +9715,7 @@
       <c r="A341" t="inlineStr"/>
       <c r="B341" t="inlineStr">
         <is>
-          <t>戦績：FO時間</t>
+          <t>戦績：BGM時間3</t>
         </is>
       </c>
       <c r="C341" t="inlineStr">
@@ -9724,13 +9724,13 @@
         </is>
       </c>
       <c r="D341" t="n">
-        <v>5.5</v>
+        <v>293</v>
       </c>
       <c r="E341" t="n">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="F341" t="n">
-        <v>20</v>
+        <v>350</v>
       </c>
       <c r="G341" t="n">
         <v>0.1</v>
@@ -9741,7 +9741,7 @@
       <c r="A342" t="inlineStr"/>
       <c r="B342" t="inlineStr">
         <is>
-          <t>戦績：FO時間(Skip)</t>
+          <t>戦績：BGM時間4</t>
         </is>
       </c>
       <c r="C342" t="inlineStr">
@@ -9750,13 +9750,13 @@
         </is>
       </c>
       <c r="D342" t="n">
-        <v>1</v>
+        <v>325</v>
       </c>
       <c r="E342" t="n">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="F342" t="n">
-        <v>20</v>
+        <v>400</v>
       </c>
       <c r="G342" t="n">
         <v>0.1</v>
@@ -9767,7 +9767,7 @@
       <c r="A343" t="inlineStr"/>
       <c r="B343" t="inlineStr">
         <is>
-          <t>戦績：FO後待機時間</t>
+          <t>戦績：BGM時間5</t>
         </is>
       </c>
       <c r="C343" t="inlineStr">
@@ -9776,13 +9776,13 @@
         </is>
       </c>
       <c r="D343" t="n">
-        <v>0</v>
+        <v>357</v>
       </c>
       <c r="E343" t="n">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="F343" t="n">
-        <v>20</v>
+        <v>400</v>
       </c>
       <c r="G343" t="n">
         <v>0.1</v>
@@ -9793,22 +9793,22 @@
       <c r="A344" t="inlineStr"/>
       <c r="B344" t="inlineStr">
         <is>
-          <t>後日談：BGM開始～FI開始</t>
+          <t>戦績：BGM時間6</t>
         </is>
       </c>
       <c r="C344" t="inlineStr">
         <is>
-          <t>LaterTalk：Time Setting</t>
+          <t>BattleRecord：Time Settng</t>
         </is>
       </c>
       <c r="D344" t="n">
-        <v>10</v>
+        <v>387</v>
       </c>
       <c r="E344" t="n">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="F344" t="n">
-        <v>20</v>
+        <v>400</v>
       </c>
       <c r="G344" t="n">
         <v>0.1</v>
@@ -9819,22 +9819,22 @@
       <c r="A345" t="inlineStr"/>
       <c r="B345" t="inlineStr">
         <is>
-          <t>後日談：FI時間</t>
+          <t>戦績：終了座標</t>
         </is>
       </c>
       <c r="C345" t="inlineStr">
         <is>
-          <t>LaterTalk：Time Setting</t>
+          <t>BattleRecord：Time Settng</t>
         </is>
       </c>
       <c r="D345" t="n">
-        <v>2</v>
+        <v>660</v>
       </c>
       <c r="E345" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F345" t="n">
-        <v>20</v>
+        <v>700</v>
       </c>
       <c r="G345" t="n">
         <v>0.1</v>
@@ -9845,16 +9845,16 @@
       <c r="A346" t="inlineStr"/>
       <c r="B346" t="inlineStr">
         <is>
-          <t>後日談：1キャラ時間</t>
+          <t>戦績：FO時間</t>
         </is>
       </c>
       <c r="C346" t="inlineStr">
         <is>
-          <t>LaterTalk：Time Setting</t>
+          <t>BattleRecord：Time Settng</t>
         </is>
       </c>
       <c r="D346" t="n">
-        <v>15</v>
+        <v>5.5</v>
       </c>
       <c r="E346" t="n">
         <v>0</v>
@@ -9871,16 +9871,16 @@
       <c r="A347" t="inlineStr"/>
       <c r="B347" t="inlineStr">
         <is>
-          <t>後日談：FO時間</t>
+          <t>戦績：FO時間(Skip)</t>
         </is>
       </c>
       <c r="C347" t="inlineStr">
         <is>
-          <t>LaterTalk：Time Setting</t>
+          <t>BattleRecord：Time Settng</t>
         </is>
       </c>
       <c r="D347" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E347" t="n">
         <v>0</v>
@@ -9897,22 +9897,22 @@
       <c r="A348" t="inlineStr"/>
       <c r="B348" t="inlineStr">
         <is>
-          <t>後日談：BGM時間0</t>
+          <t>戦績：FO後待機時間</t>
         </is>
       </c>
       <c r="C348" t="inlineStr">
         <is>
-          <t>LaterTalk：Time Setting</t>
+          <t>BattleRecord：Time Settng</t>
         </is>
       </c>
       <c r="D348" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="E348" t="n">
         <v>0</v>
       </c>
       <c r="F348" t="n">
-        <v>200</v>
+        <v>20</v>
       </c>
       <c r="G348" t="n">
         <v>0.1</v>
@@ -9923,7 +9923,7 @@
       <c r="A349" t="inlineStr"/>
       <c r="B349" t="inlineStr">
         <is>
-          <t>後日談：BGM時間1</t>
+          <t>後日談：BGM開始～FI開始</t>
         </is>
       </c>
       <c r="C349" t="inlineStr">
@@ -9932,13 +9932,13 @@
         </is>
       </c>
       <c r="D349" t="n">
-        <v>90</v>
+        <v>10</v>
       </c>
       <c r="E349" t="n">
         <v>0</v>
       </c>
       <c r="F349" t="n">
-        <v>200</v>
+        <v>20</v>
       </c>
       <c r="G349" t="n">
         <v>0.1</v>
@@ -9949,7 +9949,7 @@
       <c r="A350" t="inlineStr"/>
       <c r="B350" t="inlineStr">
         <is>
-          <t>後日談：BGM時間2</t>
+          <t>後日談：FI時間</t>
         </is>
       </c>
       <c r="C350" t="inlineStr">
@@ -9958,13 +9958,13 @@
         </is>
       </c>
       <c r="D350" t="n">
-        <v>120</v>
+        <v>2</v>
       </c>
       <c r="E350" t="n">
         <v>0</v>
       </c>
       <c r="F350" t="n">
-        <v>200</v>
+        <v>20</v>
       </c>
       <c r="G350" t="n">
         <v>0.1</v>
@@ -9975,7 +9975,7 @@
       <c r="A351" t="inlineStr"/>
       <c r="B351" t="inlineStr">
         <is>
-          <t>後日談：BGM時間4</t>
+          <t>後日談：1キャラ時間</t>
         </is>
       </c>
       <c r="C351" t="inlineStr">
@@ -9984,13 +9984,13 @@
         </is>
       </c>
       <c r="D351" t="n">
-        <v>193.5</v>
+        <v>15</v>
       </c>
       <c r="E351" t="n">
         <v>0</v>
       </c>
       <c r="F351" t="n">
-        <v>250</v>
+        <v>20</v>
       </c>
       <c r="G351" t="n">
         <v>0.1</v>
@@ -10001,7 +10001,7 @@
       <c r="A352" t="inlineStr"/>
       <c r="B352" t="inlineStr">
         <is>
-          <t>後日談：BGM時間5</t>
+          <t>後日談：FO時間</t>
         </is>
       </c>
       <c r="C352" t="inlineStr">
@@ -10010,13 +10010,13 @@
         </is>
       </c>
       <c r="D352" t="n">
-        <v>223.5</v>
+        <v>2</v>
       </c>
       <c r="E352" t="n">
         <v>0</v>
       </c>
       <c r="F352" t="n">
-        <v>250</v>
+        <v>20</v>
       </c>
       <c r="G352" t="n">
         <v>0.1</v>
@@ -10027,7 +10027,7 @@
       <c r="A353" t="inlineStr"/>
       <c r="B353" t="inlineStr">
         <is>
-          <t>後日談：終了後待機時間</t>
+          <t>後日談：BGM時間0</t>
         </is>
       </c>
       <c r="C353" t="inlineStr">
@@ -10036,13 +10036,13 @@
         </is>
       </c>
       <c r="D353" t="n">
-        <v>8</v>
+        <v>60</v>
       </c>
       <c r="E353" t="n">
         <v>0</v>
       </c>
       <c r="F353" t="n">
-        <v>20</v>
+        <v>200</v>
       </c>
       <c r="G353" t="n">
         <v>0.1</v>
@@ -10053,22 +10053,22 @@
       <c r="A354" t="inlineStr"/>
       <c r="B354" t="inlineStr">
         <is>
-          <t>クレジット：BGM開始～FI開始</t>
+          <t>後日談：BGM時間1</t>
         </is>
       </c>
       <c r="C354" t="inlineStr">
         <is>
-          <t>Credit：Time Setting</t>
+          <t>LaterTalk：Time Setting</t>
         </is>
       </c>
       <c r="D354" t="n">
-        <v>1</v>
+        <v>90</v>
       </c>
       <c r="E354" t="n">
         <v>0</v>
       </c>
       <c r="F354" t="n">
-        <v>20</v>
+        <v>200</v>
       </c>
       <c r="G354" t="n">
         <v>0.1</v>
@@ -10079,22 +10079,22 @@
       <c r="A355" t="inlineStr"/>
       <c r="B355" t="inlineStr">
         <is>
-          <t>クレジット：FI時間</t>
+          <t>後日談：BGM時間2</t>
         </is>
       </c>
       <c r="C355" t="inlineStr">
         <is>
-          <t>Credit：Time Setting</t>
+          <t>LaterTalk：Time Setting</t>
         </is>
       </c>
       <c r="D355" t="n">
-        <v>2</v>
+        <v>120</v>
       </c>
       <c r="E355" t="n">
         <v>0</v>
       </c>
       <c r="F355" t="n">
-        <v>20</v>
+        <v>200</v>
       </c>
       <c r="G355" t="n">
         <v>0.1</v>
@@ -10105,22 +10105,22 @@
       <c r="A356" t="inlineStr"/>
       <c r="B356" t="inlineStr">
         <is>
-          <t>クレジット：開始座標</t>
+          <t>後日談：BGM時間4</t>
         </is>
       </c>
       <c r="C356" t="inlineStr">
         <is>
-          <t>Credit：Time Setting</t>
+          <t>LaterTalk：Time Setting</t>
         </is>
       </c>
       <c r="D356" t="n">
-        <v>-600</v>
+        <v>193.5</v>
       </c>
       <c r="E356" t="n">
-        <v>-700</v>
+        <v>0</v>
       </c>
       <c r="F356" t="n">
-        <v>-400</v>
+        <v>250</v>
       </c>
       <c r="G356" t="n">
         <v>0.1</v>
@@ -10131,22 +10131,22 @@
       <c r="A357" t="inlineStr"/>
       <c r="B357" t="inlineStr">
         <is>
-          <t>クレジット：スクロール時間</t>
+          <t>後日談：BGM時間5</t>
         </is>
       </c>
       <c r="C357" t="inlineStr">
         <is>
-          <t>Credit：Time Setting</t>
+          <t>LaterTalk：Time Setting</t>
         </is>
       </c>
       <c r="D357" t="n">
-        <v>300</v>
+        <v>223.5</v>
       </c>
       <c r="E357" t="n">
         <v>0</v>
       </c>
       <c r="F357" t="n">
-        <v>400</v>
+        <v>250</v>
       </c>
       <c r="G357" t="n">
         <v>0.1</v>
@@ -10157,22 +10157,22 @@
       <c r="A358" t="inlineStr"/>
       <c r="B358" t="inlineStr">
         <is>
-          <t>クレジット：イラスト変化時間</t>
+          <t>後日談：終了後待機時間</t>
         </is>
       </c>
       <c r="C358" t="inlineStr">
         <is>
-          <t>Credit：Time Setting</t>
+          <t>LaterTalk：Time Setting</t>
         </is>
       </c>
       <c r="D358" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E358" t="n">
         <v>0</v>
       </c>
       <c r="F358" t="n">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="G358" t="n">
         <v>0.1</v>
@@ -10183,7 +10183,7 @@
       <c r="A359" t="inlineStr"/>
       <c r="B359" t="inlineStr">
         <is>
-          <t>クレジット：終了座標</t>
+          <t>クレジット：BGM開始～FI開始</t>
         </is>
       </c>
       <c r="C359" t="inlineStr">
@@ -10192,13 +10192,13 @@
         </is>
       </c>
       <c r="D359" t="n">
-        <v>520</v>
+        <v>1</v>
       </c>
       <c r="E359" t="n">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="F359" t="n">
-        <v>510</v>
+        <v>20</v>
       </c>
       <c r="G359" t="n">
         <v>0.1</v>
@@ -10209,7 +10209,7 @@
       <c r="A360" t="inlineStr"/>
       <c r="B360" t="inlineStr">
         <is>
-          <t>クレジット：FO前待機</t>
+          <t>クレジット：FI時間</t>
         </is>
       </c>
       <c r="C360" t="inlineStr">
@@ -10218,7 +10218,7 @@
         </is>
       </c>
       <c r="D360" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E360" t="n">
         <v>0</v>
@@ -10235,7 +10235,7 @@
       <c r="A361" t="inlineStr"/>
       <c r="B361" t="inlineStr">
         <is>
-          <t>クレジット：FO時間</t>
+          <t>クレジット：開始座標</t>
         </is>
       </c>
       <c r="C361" t="inlineStr">
@@ -10244,13 +10244,13 @@
         </is>
       </c>
       <c r="D361" t="n">
-        <v>2</v>
+        <v>-600</v>
       </c>
       <c r="E361" t="n">
-        <v>0</v>
+        <v>-700</v>
       </c>
       <c r="F361" t="n">
-        <v>20</v>
+        <v>-400</v>
       </c>
       <c r="G361" t="n">
         <v>0.1</v>
@@ -10261,7 +10261,7 @@
       <c r="A362" t="inlineStr"/>
       <c r="B362" t="inlineStr">
         <is>
-          <t>クレジット：FO後待機時間</t>
+          <t>クレジット：スクロール時間</t>
         </is>
       </c>
       <c r="C362" t="inlineStr">
@@ -10270,13 +10270,13 @@
         </is>
       </c>
       <c r="D362" t="n">
-        <v>3</v>
+        <v>300</v>
       </c>
       <c r="E362" t="n">
         <v>0</v>
       </c>
       <c r="F362" t="n">
-        <v>20</v>
+        <v>400</v>
       </c>
       <c r="G362" t="n">
         <v>0.1</v>
@@ -10287,7 +10287,7 @@
       <c r="A363" t="inlineStr"/>
       <c r="B363" t="inlineStr">
         <is>
-          <t>一枚絵：FI時間</t>
+          <t>クレジット：イラスト変化時間</t>
         </is>
       </c>
       <c r="C363" t="inlineStr">
@@ -10296,13 +10296,13 @@
         </is>
       </c>
       <c r="D363" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E363" t="n">
         <v>0</v>
       </c>
       <c r="F363" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G363" t="n">
         <v>0.1</v>
@@ -10313,7 +10313,7 @@
       <c r="A364" t="inlineStr"/>
       <c r="B364" t="inlineStr">
         <is>
-          <t>一枚絵：待機時間</t>
+          <t>クレジット：終了座標</t>
         </is>
       </c>
       <c r="C364" t="inlineStr">
@@ -10322,13 +10322,13 @@
         </is>
       </c>
       <c r="D364" t="n">
-        <v>5</v>
+        <v>520</v>
       </c>
       <c r="E364" t="n">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="F364" t="n">
-        <v>1</v>
+        <v>510</v>
       </c>
       <c r="G364" t="n">
         <v>0.1</v>
@@ -10339,7 +10339,7 @@
       <c r="A365" t="inlineStr"/>
       <c r="B365" t="inlineStr">
         <is>
-          <t>一枚絵：FO時間</t>
+          <t>クレジット：FO前待機</t>
         </is>
       </c>
       <c r="C365" t="inlineStr">
@@ -10348,13 +10348,13 @@
         </is>
       </c>
       <c r="D365" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E365" t="n">
         <v>0</v>
       </c>
       <c r="F365" t="n">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="G365" t="n">
         <v>0.1</v>
@@ -10365,7 +10365,7 @@
       <c r="A366" t="inlineStr"/>
       <c r="B366" t="inlineStr">
         <is>
-          <t>一枚絵：FO後時間</t>
+          <t>クレジット：FO時間</t>
         </is>
       </c>
       <c r="C366" t="inlineStr">
@@ -10374,7 +10374,7 @@
         </is>
       </c>
       <c r="D366" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E366" t="n">
         <v>0</v>
@@ -10391,25 +10391,25 @@
       <c r="A367" t="inlineStr"/>
       <c r="B367" t="inlineStr">
         <is>
-          <t>&lt;エンディング</t>
+          <t>クレジット：FO後待機時間</t>
         </is>
       </c>
       <c r="C367" t="inlineStr">
         <is>
-          <t>Ending</t>
+          <t>Credit：Time Setting</t>
         </is>
       </c>
       <c r="D367" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E367" t="n">
         <v>0</v>
       </c>
       <c r="F367" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G367" t="n">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="H367" t="inlineStr"/>
     </row>
@@ -10417,25 +10417,25 @@
       <c r="A368" t="inlineStr"/>
       <c r="B368" t="inlineStr">
         <is>
-          <t>&gt;自動プレイ</t>
+          <t>一枚絵：FI時間</t>
         </is>
       </c>
       <c r="C368" t="inlineStr">
         <is>
-          <t>AutoPlay</t>
+          <t>Credit：Time Setting</t>
         </is>
       </c>
       <c r="D368" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E368" t="n">
         <v>0</v>
       </c>
       <c r="F368" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G368" t="n">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="H368" t="inlineStr"/>
     </row>
@@ -10443,85 +10443,77 @@
       <c r="A369" t="inlineStr"/>
       <c r="B369" t="inlineStr">
         <is>
-          <t>自動プレイモニタ</t>
+          <t>一枚絵：待機時間</t>
         </is>
       </c>
       <c r="C369" t="inlineStr">
         <is>
-          <t>AutoPlayMonitor</t>
+          <t>Credit：Time Setting</t>
         </is>
       </c>
       <c r="D369" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E369" t="n">
         <v>0</v>
       </c>
       <c r="F369" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G369" t="n">
-        <v>1</v>
-      </c>
-      <c r="H369" t="inlineStr">
-        <is>
-          <t>OFF,ON</t>
-        </is>
-      </c>
+        <v>0.1</v>
+      </c>
+      <c r="H369" t="inlineStr"/>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr"/>
       <c r="B370" t="inlineStr">
         <is>
-          <t>自動プレイ強化</t>
+          <t>一枚絵：FO時間</t>
         </is>
       </c>
       <c r="C370" t="inlineStr">
         <is>
-          <t>AutoPlayDoping</t>
+          <t>Credit：Time Setting</t>
         </is>
       </c>
       <c r="D370" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E370" t="n">
         <v>0</v>
       </c>
       <c r="F370" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G370" t="n">
-        <v>1</v>
-      </c>
-      <c r="H370" t="inlineStr">
-        <is>
-          <t>OFF,ON</t>
-        </is>
-      </c>
+        <v>0.1</v>
+      </c>
+      <c r="H370" t="inlineStr"/>
     </row>
     <row r="371">
       <c r="A371" t="inlineStr"/>
       <c r="B371" t="inlineStr">
         <is>
-          <t>自動プレイターン</t>
+          <t>一枚絵：FO後時間</t>
         </is>
       </c>
       <c r="C371" t="inlineStr">
         <is>
-          <t>AutoPlayTurn</t>
+          <t>Credit：Time Setting</t>
         </is>
       </c>
       <c r="D371" t="n">
+        <v>0</v>
+      </c>
+      <c r="E371" t="n">
+        <v>0</v>
+      </c>
+      <c r="F371" t="n">
         <v>20</v>
       </c>
-      <c r="E371" t="n">
-        <v>0</v>
-      </c>
-      <c r="F371" t="n">
-        <v>99</v>
-      </c>
       <c r="G371" t="n">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="H371" t="inlineStr"/>
     </row>
@@ -10529,12 +10521,12 @@
       <c r="A372" t="inlineStr"/>
       <c r="B372" t="inlineStr">
         <is>
-          <t>自動プレイ不死身</t>
+          <t>&lt;エンディング</t>
         </is>
       </c>
       <c r="C372" t="inlineStr">
         <is>
-          <t>AutoPlayImmortal</t>
+          <t>Ending</t>
         </is>
       </c>
       <c r="D372" t="n">
@@ -10549,22 +10541,18 @@
       <c r="G372" t="n">
         <v>1</v>
       </c>
-      <c r="H372" t="inlineStr">
-        <is>
-          <t>OFF,自軍,全軍</t>
-        </is>
-      </c>
+      <c r="H372" t="inlineStr"/>
     </row>
     <row r="373">
       <c r="A373" t="inlineStr"/>
       <c r="B373" t="inlineStr">
         <is>
-          <t>自動プレイ性別</t>
+          <t>&gt;自動プレイ</t>
         </is>
       </c>
       <c r="C373" t="inlineStr">
         <is>
-          <t>AutoPlayGender</t>
+          <t>AutoPlay</t>
         </is>
       </c>
       <c r="D373" t="n">
@@ -10579,26 +10567,22 @@
       <c r="G373" t="n">
         <v>1</v>
       </c>
-      <c r="H373" t="inlineStr">
-        <is>
-          <t>ランダム,男性,女性</t>
-        </is>
-      </c>
+      <c r="H373" t="inlineStr"/>
     </row>
     <row r="374">
       <c r="A374" t="inlineStr"/>
       <c r="B374" t="inlineStr">
         <is>
-          <t>自動プレイ難易度</t>
+          <t>自動プレイモニタ</t>
         </is>
       </c>
       <c r="C374" t="inlineStr">
         <is>
-          <t>AutoPlayDifficulty</t>
+          <t>AutoPlayMonitor</t>
         </is>
       </c>
       <c r="D374" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E374" t="n">
         <v>0</v>
@@ -10611,7 +10595,7 @@
       </c>
       <c r="H374" t="inlineStr">
         <is>
-          <t>ランダム,ノーマル,ハード,ルナティック</t>
+          <t>OFF,ON</t>
         </is>
       </c>
     </row>
@@ -10619,12 +10603,12 @@
       <c r="A375" t="inlineStr"/>
       <c r="B375" t="inlineStr">
         <is>
-          <t>自動プレイモード</t>
+          <t>自動プレイ強化</t>
         </is>
       </c>
       <c r="C375" t="inlineStr">
         <is>
-          <t>AutoPlayMode</t>
+          <t>AutoPlayDoping</t>
         </is>
       </c>
       <c r="D375" t="n">
@@ -10641,7 +10625,7 @@
       </c>
       <c r="H375" t="inlineStr">
         <is>
-          <t>ランダム,カジュアル,クラシック</t>
+          <t>OFF,ON</t>
         </is>
       </c>
     </row>
@@ -10649,46 +10633,42 @@
       <c r="A376" t="inlineStr"/>
       <c r="B376" t="inlineStr">
         <is>
-          <t>自動プレイバトル</t>
+          <t>自動プレイターン</t>
         </is>
       </c>
       <c r="C376" t="inlineStr">
         <is>
-          <t>AutoPlayBattle</t>
+          <t>AutoPlayTurn</t>
         </is>
       </c>
       <c r="D376" t="n">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="E376" t="n">
         <v>0</v>
       </c>
       <c r="F376" t="n">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="G376" t="n">
         <v>1</v>
       </c>
-      <c r="H376" t="inlineStr">
-        <is>
-          <t>OFF,ON</t>
-        </is>
-      </c>
+      <c r="H376" t="inlineStr"/>
     </row>
     <row r="377">
       <c r="A377" t="inlineStr"/>
       <c r="B377" t="inlineStr">
         <is>
-          <t>自動プレイ高速化</t>
+          <t>自動プレイ不死身</t>
         </is>
       </c>
       <c r="C377" t="inlineStr">
         <is>
-          <t>AutoPlaySpeedUp</t>
+          <t>AutoPlayImmortal</t>
         </is>
       </c>
       <c r="D377" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E377" t="n">
         <v>0</v>
@@ -10701,7 +10681,7 @@
       </c>
       <c r="H377" t="inlineStr">
         <is>
-          <t>OFF,ON</t>
+          <t>OFF,自軍,全軍</t>
         </is>
       </c>
     </row>
@@ -10709,12 +10689,12 @@
       <c r="A378" t="inlineStr"/>
       <c r="B378" t="inlineStr">
         <is>
-          <t>自動プレイデモスキップ</t>
+          <t>自動プレイ性別</t>
         </is>
       </c>
       <c r="C378" t="inlineStr">
         <is>
-          <t>AutoPlayDemoSkip</t>
+          <t>AutoPlayGender</t>
         </is>
       </c>
       <c r="D378" t="n">
@@ -10731,7 +10711,7 @@
       </c>
       <c r="H378" t="inlineStr">
         <is>
-          <t>OFF,ON</t>
+          <t>ランダム,男性,女性</t>
         </is>
       </c>
     </row>
@@ -10739,16 +10719,16 @@
       <c r="A379" t="inlineStr"/>
       <c r="B379" t="inlineStr">
         <is>
-          <t>自動プレイバトルスキップ</t>
+          <t>自動プレイ難易度</t>
         </is>
       </c>
       <c r="C379" t="inlineStr">
         <is>
-          <t>AutoPlayBattleSkip</t>
+          <t>AutoPlayDifficulty</t>
         </is>
       </c>
       <c r="D379" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E379" t="n">
         <v>0</v>
@@ -10761,7 +10741,7 @@
       </c>
       <c r="H379" t="inlineStr">
         <is>
-          <t>OFF,ON</t>
+          <t>ランダム,ノーマル,ハード,ルナティック</t>
         </is>
       </c>
     </row>
@@ -10769,27 +10749,177 @@
       <c r="A380" t="inlineStr"/>
       <c r="B380" t="inlineStr">
         <is>
+          <t>自動プレイモード</t>
+        </is>
+      </c>
+      <c r="C380" t="inlineStr">
+        <is>
+          <t>AutoPlayMode</t>
+        </is>
+      </c>
+      <c r="D380" t="n">
+        <v>1</v>
+      </c>
+      <c r="E380" t="n">
+        <v>0</v>
+      </c>
+      <c r="F380" t="n">
+        <v>0</v>
+      </c>
+      <c r="G380" t="n">
+        <v>1</v>
+      </c>
+      <c r="H380" t="inlineStr">
+        <is>
+          <t>ランダム,カジュアル,クラシック</t>
+        </is>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="inlineStr"/>
+      <c r="B381" t="inlineStr">
+        <is>
+          <t>自動プレイバトル</t>
+        </is>
+      </c>
+      <c r="C381" t="inlineStr">
+        <is>
+          <t>AutoPlayBattle</t>
+        </is>
+      </c>
+      <c r="D381" t="n">
+        <v>1</v>
+      </c>
+      <c r="E381" t="n">
+        <v>0</v>
+      </c>
+      <c r="F381" t="n">
+        <v>0</v>
+      </c>
+      <c r="G381" t="n">
+        <v>1</v>
+      </c>
+      <c r="H381" t="inlineStr">
+        <is>
+          <t>OFF,ON</t>
+        </is>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="inlineStr"/>
+      <c r="B382" t="inlineStr">
+        <is>
+          <t>自動プレイ高速化</t>
+        </is>
+      </c>
+      <c r="C382" t="inlineStr">
+        <is>
+          <t>AutoPlaySpeedUp</t>
+        </is>
+      </c>
+      <c r="D382" t="n">
+        <v>1</v>
+      </c>
+      <c r="E382" t="n">
+        <v>0</v>
+      </c>
+      <c r="F382" t="n">
+        <v>0</v>
+      </c>
+      <c r="G382" t="n">
+        <v>1</v>
+      </c>
+      <c r="H382" t="inlineStr">
+        <is>
+          <t>OFF,ON</t>
+        </is>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="inlineStr"/>
+      <c r="B383" t="inlineStr">
+        <is>
+          <t>自動プレイデモスキップ</t>
+        </is>
+      </c>
+      <c r="C383" t="inlineStr">
+        <is>
+          <t>AutoPlayDemoSkip</t>
+        </is>
+      </c>
+      <c r="D383" t="n">
+        <v>0</v>
+      </c>
+      <c r="E383" t="n">
+        <v>0</v>
+      </c>
+      <c r="F383" t="n">
+        <v>0</v>
+      </c>
+      <c r="G383" t="n">
+        <v>1</v>
+      </c>
+      <c r="H383" t="inlineStr">
+        <is>
+          <t>OFF,ON</t>
+        </is>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="inlineStr"/>
+      <c r="B384" t="inlineStr">
+        <is>
+          <t>自動プレイバトルスキップ</t>
+        </is>
+      </c>
+      <c r="C384" t="inlineStr">
+        <is>
+          <t>AutoPlayBattleSkip</t>
+        </is>
+      </c>
+      <c r="D384" t="n">
+        <v>0</v>
+      </c>
+      <c r="E384" t="n">
+        <v>0</v>
+      </c>
+      <c r="F384" t="n">
+        <v>0</v>
+      </c>
+      <c r="G384" t="n">
+        <v>1</v>
+      </c>
+      <c r="H384" t="inlineStr">
+        <is>
+          <t>OFF,ON</t>
+        </is>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="inlineStr"/>
+      <c r="B385" t="inlineStr">
+        <is>
           <t>&lt;自動プレイ</t>
         </is>
       </c>
-      <c r="C380" t="inlineStr">
+      <c r="C385" t="inlineStr">
         <is>
           <t>AutoPlay</t>
         </is>
       </c>
-      <c r="D380" t="n">
-        <v>0</v>
-      </c>
-      <c r="E380" t="n">
-        <v>0</v>
-      </c>
-      <c r="F380" t="n">
-        <v>0</v>
-      </c>
-      <c r="G380" t="n">
-        <v>1</v>
-      </c>
-      <c r="H380" t="inlineStr"/>
+      <c r="D385" t="n">
+        <v>0</v>
+      </c>
+      <c r="E385" t="n">
+        <v>0</v>
+      </c>
+      <c r="F385" t="n">
+        <v>0</v>
+      </c>
+      <c r="G385" t="n">
+        <v>1</v>
+      </c>
+      <c r="H385" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/xlsx/Params.xlsx
+++ b/data/xlsx/Params.xlsx
@@ -416,7 +416,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H385"/>
+  <dimension ref="A1:H386"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
@@ -9377,22 +9377,22 @@
       <c r="A328" t="inlineStr"/>
       <c r="B328" t="inlineStr">
         <is>
-          <t>&lt;拠点</t>
+          <t>リフレッシュ：支援値</t>
         </is>
       </c>
       <c r="C328" t="inlineStr">
         <is>
-          <t>Base</t>
+          <t>Refresh: Support value addition</t>
         </is>
       </c>
       <c r="D328" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E328" t="n">
         <v>0</v>
       </c>
       <c r="F328" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G328" t="n">
         <v>1</v>
@@ -9403,12 +9403,12 @@
       <c r="A329" t="inlineStr"/>
       <c r="B329" t="inlineStr">
         <is>
-          <t>&gt;通信</t>
+          <t>&lt;拠点</t>
         </is>
       </c>
       <c r="C329" t="inlineStr">
         <is>
-          <t>Online</t>
+          <t>Base</t>
         </is>
       </c>
       <c r="D329" t="n">
@@ -9429,22 +9429,22 @@
       <c r="A330" t="inlineStr"/>
       <c r="B330" t="inlineStr">
         <is>
-          <t>本格対戦：攻撃側出撃人数</t>
+          <t>&gt;通信</t>
         </is>
       </c>
       <c r="C330" t="inlineStr">
         <is>
-          <t>CustomBattle:OffenseSortieMax</t>
+          <t>Online</t>
         </is>
       </c>
       <c r="D330" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E330" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F330" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="G330" t="n">
         <v>1</v>
@@ -9455,16 +9455,16 @@
       <c r="A331" t="inlineStr"/>
       <c r="B331" t="inlineStr">
         <is>
-          <t>本格対戦：防衛側出撃人数</t>
+          <t>本格対戦：攻撃側出撃人数</t>
         </is>
       </c>
       <c r="C331" t="inlineStr">
         <is>
-          <t>CustomBattle:DefenseSortieMax</t>
+          <t>CustomBattle:OffenseSortieMax</t>
         </is>
       </c>
       <c r="D331" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E331" t="n">
         <v>1</v>
@@ -9481,22 +9481,22 @@
       <c r="A332" t="inlineStr"/>
       <c r="B332" t="inlineStr">
         <is>
-          <t>&lt;通信</t>
+          <t>本格対戦：防衛側出撃人数</t>
         </is>
       </c>
       <c r="C332" t="inlineStr">
         <is>
-          <t>Online</t>
+          <t>CustomBattle:DefenseSortieMax</t>
         </is>
       </c>
       <c r="D332" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E332" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F332" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="G332" t="n">
         <v>1</v>
@@ -9507,12 +9507,12 @@
       <c r="A333" t="inlineStr"/>
       <c r="B333" t="inlineStr">
         <is>
-          <t>&gt;エンディング</t>
+          <t>&lt;通信</t>
         </is>
       </c>
       <c r="C333" t="inlineStr">
         <is>
-          <t>Ending</t>
+          <t>Online</t>
         </is>
       </c>
       <c r="D333" t="n">
@@ -9533,12 +9533,12 @@
       <c r="A334" t="inlineStr"/>
       <c r="B334" t="inlineStr">
         <is>
-          <t>戦績：デバッグ用外伝クリア数</t>
+          <t>&gt;エンディング</t>
         </is>
       </c>
       <c r="C334" t="inlineStr">
         <is>
-          <t>BattleRecord：Record Count 4 Debug</t>
+          <t>Ending</t>
         </is>
       </c>
       <c r="D334" t="n">
@@ -9548,7 +9548,7 @@
         <v>0</v>
       </c>
       <c r="F334" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="G334" t="n">
         <v>1</v>
@@ -9559,12 +9559,12 @@
       <c r="A335" t="inlineStr"/>
       <c r="B335" t="inlineStr">
         <is>
-          <t>戦績：BGM開始～FI開始</t>
+          <t>戦績：デバッグ用外伝クリア数</t>
         </is>
       </c>
       <c r="C335" t="inlineStr">
         <is>
-          <t>BattleRecord：Time Settng</t>
+          <t>BattleRecord：Record Count 4 Debug</t>
         </is>
       </c>
       <c r="D335" t="n">
@@ -9574,10 +9574,10 @@
         <v>0</v>
       </c>
       <c r="F335" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="G335" t="n">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="H335" t="inlineStr"/>
     </row>
@@ -9585,7 +9585,7 @@
       <c r="A336" t="inlineStr"/>
       <c r="B336" t="inlineStr">
         <is>
-          <t>戦績：FI時間</t>
+          <t>戦績：BGM開始～FI開始</t>
         </is>
       </c>
       <c r="C336" t="inlineStr">
@@ -9594,7 +9594,7 @@
         </is>
       </c>
       <c r="D336" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E336" t="n">
         <v>0</v>
@@ -9611,7 +9611,7 @@
       <c r="A337" t="inlineStr"/>
       <c r="B337" t="inlineStr">
         <is>
-          <t>戦績：開始座標</t>
+          <t>戦績：FI時間</t>
         </is>
       </c>
       <c r="C337" t="inlineStr">
@@ -9620,13 +9620,13 @@
         </is>
       </c>
       <c r="D337" t="n">
-        <v>-560</v>
+        <v>2</v>
       </c>
       <c r="E337" t="n">
-        <v>-700</v>
+        <v>0</v>
       </c>
       <c r="F337" t="n">
-        <v>-400</v>
+        <v>20</v>
       </c>
       <c r="G337" t="n">
         <v>0.1</v>
@@ -9637,7 +9637,7 @@
       <c r="A338" t="inlineStr"/>
       <c r="B338" t="inlineStr">
         <is>
-          <t>戦績：BGM時間0</t>
+          <t>戦績：開始座標</t>
         </is>
       </c>
       <c r="C338" t="inlineStr">
@@ -9646,13 +9646,13 @@
         </is>
       </c>
       <c r="D338" t="n">
-        <v>199</v>
+        <v>-560</v>
       </c>
       <c r="E338" t="n">
-        <v>150</v>
+        <v>-700</v>
       </c>
       <c r="F338" t="n">
-        <v>350</v>
+        <v>-400</v>
       </c>
       <c r="G338" t="n">
         <v>0.1</v>
@@ -9663,7 +9663,7 @@
       <c r="A339" t="inlineStr"/>
       <c r="B339" t="inlineStr">
         <is>
-          <t>戦績：BGM時間1</t>
+          <t>戦績：BGM時間0</t>
         </is>
       </c>
       <c r="C339" t="inlineStr">
@@ -9672,7 +9672,7 @@
         </is>
       </c>
       <c r="D339" t="n">
-        <v>229</v>
+        <v>199</v>
       </c>
       <c r="E339" t="n">
         <v>150</v>
@@ -9689,7 +9689,7 @@
       <c r="A340" t="inlineStr"/>
       <c r="B340" t="inlineStr">
         <is>
-          <t>戦績：BGM時間2</t>
+          <t>戦績：BGM時間1</t>
         </is>
       </c>
       <c r="C340" t="inlineStr">
@@ -9698,7 +9698,7 @@
         </is>
       </c>
       <c r="D340" t="n">
-        <v>277</v>
+        <v>229</v>
       </c>
       <c r="E340" t="n">
         <v>150</v>
@@ -9715,7 +9715,7 @@
       <c r="A341" t="inlineStr"/>
       <c r="B341" t="inlineStr">
         <is>
-          <t>戦績：BGM時間3</t>
+          <t>戦績：BGM時間2</t>
         </is>
       </c>
       <c r="C341" t="inlineStr">
@@ -9724,7 +9724,7 @@
         </is>
       </c>
       <c r="D341" t="n">
-        <v>293</v>
+        <v>277</v>
       </c>
       <c r="E341" t="n">
         <v>150</v>
@@ -9741,7 +9741,7 @@
       <c r="A342" t="inlineStr"/>
       <c r="B342" t="inlineStr">
         <is>
-          <t>戦績：BGM時間4</t>
+          <t>戦績：BGM時間3</t>
         </is>
       </c>
       <c r="C342" t="inlineStr">
@@ -9750,13 +9750,13 @@
         </is>
       </c>
       <c r="D342" t="n">
-        <v>325</v>
+        <v>293</v>
       </c>
       <c r="E342" t="n">
         <v>150</v>
       </c>
       <c r="F342" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="G342" t="n">
         <v>0.1</v>
@@ -9767,7 +9767,7 @@
       <c r="A343" t="inlineStr"/>
       <c r="B343" t="inlineStr">
         <is>
-          <t>戦績：BGM時間5</t>
+          <t>戦績：BGM時間4</t>
         </is>
       </c>
       <c r="C343" t="inlineStr">
@@ -9776,7 +9776,7 @@
         </is>
       </c>
       <c r="D343" t="n">
-        <v>357</v>
+        <v>325</v>
       </c>
       <c r="E343" t="n">
         <v>150</v>
@@ -9793,7 +9793,7 @@
       <c r="A344" t="inlineStr"/>
       <c r="B344" t="inlineStr">
         <is>
-          <t>戦績：BGM時間6</t>
+          <t>戦績：BGM時間5</t>
         </is>
       </c>
       <c r="C344" t="inlineStr">
@@ -9802,7 +9802,7 @@
         </is>
       </c>
       <c r="D344" t="n">
-        <v>387</v>
+        <v>357</v>
       </c>
       <c r="E344" t="n">
         <v>150</v>
@@ -9819,7 +9819,7 @@
       <c r="A345" t="inlineStr"/>
       <c r="B345" t="inlineStr">
         <is>
-          <t>戦績：終了座標</t>
+          <t>戦績：BGM時間6</t>
         </is>
       </c>
       <c r="C345" t="inlineStr">
@@ -9828,13 +9828,13 @@
         </is>
       </c>
       <c r="D345" t="n">
-        <v>660</v>
+        <v>387</v>
       </c>
       <c r="E345" t="n">
+        <v>150</v>
+      </c>
+      <c r="F345" t="n">
         <v>400</v>
-      </c>
-      <c r="F345" t="n">
-        <v>700</v>
       </c>
       <c r="G345" t="n">
         <v>0.1</v>
@@ -9845,7 +9845,7 @@
       <c r="A346" t="inlineStr"/>
       <c r="B346" t="inlineStr">
         <is>
-          <t>戦績：FO時間</t>
+          <t>戦績：終了座標</t>
         </is>
       </c>
       <c r="C346" t="inlineStr">
@@ -9854,13 +9854,13 @@
         </is>
       </c>
       <c r="D346" t="n">
-        <v>5.5</v>
+        <v>660</v>
       </c>
       <c r="E346" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F346" t="n">
-        <v>20</v>
+        <v>700</v>
       </c>
       <c r="G346" t="n">
         <v>0.1</v>
@@ -9871,7 +9871,7 @@
       <c r="A347" t="inlineStr"/>
       <c r="B347" t="inlineStr">
         <is>
-          <t>戦績：FO時間(Skip)</t>
+          <t>戦績：FO時間</t>
         </is>
       </c>
       <c r="C347" t="inlineStr">
@@ -9880,7 +9880,7 @@
         </is>
       </c>
       <c r="D347" t="n">
-        <v>1</v>
+        <v>5.5</v>
       </c>
       <c r="E347" t="n">
         <v>0</v>
@@ -9897,7 +9897,7 @@
       <c r="A348" t="inlineStr"/>
       <c r="B348" t="inlineStr">
         <is>
-          <t>戦績：FO後待機時間</t>
+          <t>戦績：FO時間(Skip)</t>
         </is>
       </c>
       <c r="C348" t="inlineStr">
@@ -9906,7 +9906,7 @@
         </is>
       </c>
       <c r="D348" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E348" t="n">
         <v>0</v>
@@ -9923,16 +9923,16 @@
       <c r="A349" t="inlineStr"/>
       <c r="B349" t="inlineStr">
         <is>
-          <t>後日談：BGM開始～FI開始</t>
+          <t>戦績：FO後待機時間</t>
         </is>
       </c>
       <c r="C349" t="inlineStr">
         <is>
-          <t>LaterTalk：Time Setting</t>
+          <t>BattleRecord：Time Settng</t>
         </is>
       </c>
       <c r="D349" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E349" t="n">
         <v>0</v>
@@ -9949,7 +9949,7 @@
       <c r="A350" t="inlineStr"/>
       <c r="B350" t="inlineStr">
         <is>
-          <t>後日談：FI時間</t>
+          <t>後日談：BGM開始～FI開始</t>
         </is>
       </c>
       <c r="C350" t="inlineStr">
@@ -9958,7 +9958,7 @@
         </is>
       </c>
       <c r="D350" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E350" t="n">
         <v>0</v>
@@ -9975,7 +9975,7 @@
       <c r="A351" t="inlineStr"/>
       <c r="B351" t="inlineStr">
         <is>
-          <t>後日談：1キャラ時間</t>
+          <t>後日談：FI時間</t>
         </is>
       </c>
       <c r="C351" t="inlineStr">
@@ -9984,7 +9984,7 @@
         </is>
       </c>
       <c r="D351" t="n">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="E351" t="n">
         <v>0</v>
@@ -10001,7 +10001,7 @@
       <c r="A352" t="inlineStr"/>
       <c r="B352" t="inlineStr">
         <is>
-          <t>後日談：FO時間</t>
+          <t>後日談：1キャラ時間</t>
         </is>
       </c>
       <c r="C352" t="inlineStr">
@@ -10010,7 +10010,7 @@
         </is>
       </c>
       <c r="D352" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="E352" t="n">
         <v>0</v>
@@ -10027,7 +10027,7 @@
       <c r="A353" t="inlineStr"/>
       <c r="B353" t="inlineStr">
         <is>
-          <t>後日談：BGM時間0</t>
+          <t>後日談：FO時間</t>
         </is>
       </c>
       <c r="C353" t="inlineStr">
@@ -10036,13 +10036,13 @@
         </is>
       </c>
       <c r="D353" t="n">
-        <v>60</v>
+        <v>2</v>
       </c>
       <c r="E353" t="n">
         <v>0</v>
       </c>
       <c r="F353" t="n">
-        <v>200</v>
+        <v>20</v>
       </c>
       <c r="G353" t="n">
         <v>0.1</v>
@@ -10053,7 +10053,7 @@
       <c r="A354" t="inlineStr"/>
       <c r="B354" t="inlineStr">
         <is>
-          <t>後日談：BGM時間1</t>
+          <t>後日談：BGM時間0</t>
         </is>
       </c>
       <c r="C354" t="inlineStr">
@@ -10062,7 +10062,7 @@
         </is>
       </c>
       <c r="D354" t="n">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="E354" t="n">
         <v>0</v>
@@ -10079,7 +10079,7 @@
       <c r="A355" t="inlineStr"/>
       <c r="B355" t="inlineStr">
         <is>
-          <t>後日談：BGM時間2</t>
+          <t>後日談：BGM時間1</t>
         </is>
       </c>
       <c r="C355" t="inlineStr">
@@ -10088,7 +10088,7 @@
         </is>
       </c>
       <c r="D355" t="n">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="E355" t="n">
         <v>0</v>
@@ -10105,7 +10105,7 @@
       <c r="A356" t="inlineStr"/>
       <c r="B356" t="inlineStr">
         <is>
-          <t>後日談：BGM時間4</t>
+          <t>後日談：BGM時間2</t>
         </is>
       </c>
       <c r="C356" t="inlineStr">
@@ -10114,13 +10114,13 @@
         </is>
       </c>
       <c r="D356" t="n">
-        <v>193.5</v>
+        <v>120</v>
       </c>
       <c r="E356" t="n">
         <v>0</v>
       </c>
       <c r="F356" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="G356" t="n">
         <v>0.1</v>
@@ -10131,7 +10131,7 @@
       <c r="A357" t="inlineStr"/>
       <c r="B357" t="inlineStr">
         <is>
-          <t>後日談：BGM時間5</t>
+          <t>後日談：BGM時間4</t>
         </is>
       </c>
       <c r="C357" t="inlineStr">
@@ -10140,7 +10140,7 @@
         </is>
       </c>
       <c r="D357" t="n">
-        <v>223.5</v>
+        <v>193.5</v>
       </c>
       <c r="E357" t="n">
         <v>0</v>
@@ -10157,7 +10157,7 @@
       <c r="A358" t="inlineStr"/>
       <c r="B358" t="inlineStr">
         <is>
-          <t>後日談：終了後待機時間</t>
+          <t>後日談：BGM時間5</t>
         </is>
       </c>
       <c r="C358" t="inlineStr">
@@ -10166,13 +10166,13 @@
         </is>
       </c>
       <c r="D358" t="n">
-        <v>8</v>
+        <v>223.5</v>
       </c>
       <c r="E358" t="n">
         <v>0</v>
       </c>
       <c r="F358" t="n">
-        <v>20</v>
+        <v>250</v>
       </c>
       <c r="G358" t="n">
         <v>0.1</v>
@@ -10183,16 +10183,16 @@
       <c r="A359" t="inlineStr"/>
       <c r="B359" t="inlineStr">
         <is>
-          <t>クレジット：BGM開始～FI開始</t>
+          <t>後日談：終了後待機時間</t>
         </is>
       </c>
       <c r="C359" t="inlineStr">
         <is>
-          <t>Credit：Time Setting</t>
+          <t>LaterTalk：Time Setting</t>
         </is>
       </c>
       <c r="D359" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E359" t="n">
         <v>0</v>
@@ -10209,7 +10209,7 @@
       <c r="A360" t="inlineStr"/>
       <c r="B360" t="inlineStr">
         <is>
-          <t>クレジット：FI時間</t>
+          <t>クレジット：BGM開始～FI開始</t>
         </is>
       </c>
       <c r="C360" t="inlineStr">
@@ -10218,7 +10218,7 @@
         </is>
       </c>
       <c r="D360" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E360" t="n">
         <v>0</v>
@@ -10235,7 +10235,7 @@
       <c r="A361" t="inlineStr"/>
       <c r="B361" t="inlineStr">
         <is>
-          <t>クレジット：開始座標</t>
+          <t>クレジット：FI時間</t>
         </is>
       </c>
       <c r="C361" t="inlineStr">
@@ -10244,13 +10244,13 @@
         </is>
       </c>
       <c r="D361" t="n">
-        <v>-600</v>
+        <v>2</v>
       </c>
       <c r="E361" t="n">
-        <v>-700</v>
+        <v>0</v>
       </c>
       <c r="F361" t="n">
-        <v>-400</v>
+        <v>20</v>
       </c>
       <c r="G361" t="n">
         <v>0.1</v>
@@ -10261,7 +10261,7 @@
       <c r="A362" t="inlineStr"/>
       <c r="B362" t="inlineStr">
         <is>
-          <t>クレジット：スクロール時間</t>
+          <t>クレジット：開始座標</t>
         </is>
       </c>
       <c r="C362" t="inlineStr">
@@ -10270,13 +10270,13 @@
         </is>
       </c>
       <c r="D362" t="n">
-        <v>300</v>
+        <v>-600</v>
       </c>
       <c r="E362" t="n">
-        <v>0</v>
+        <v>-700</v>
       </c>
       <c r="F362" t="n">
-        <v>400</v>
+        <v>-400</v>
       </c>
       <c r="G362" t="n">
         <v>0.1</v>
@@ -10287,7 +10287,7 @@
       <c r="A363" t="inlineStr"/>
       <c r="B363" t="inlineStr">
         <is>
-          <t>クレジット：イラスト変化時間</t>
+          <t>クレジット：スクロール時間</t>
         </is>
       </c>
       <c r="C363" t="inlineStr">
@@ -10296,13 +10296,13 @@
         </is>
       </c>
       <c r="D363" t="n">
-        <v>3</v>
+        <v>300</v>
       </c>
       <c r="E363" t="n">
         <v>0</v>
       </c>
       <c r="F363" t="n">
-        <v>5</v>
+        <v>400</v>
       </c>
       <c r="G363" t="n">
         <v>0.1</v>
@@ -10313,7 +10313,7 @@
       <c r="A364" t="inlineStr"/>
       <c r="B364" t="inlineStr">
         <is>
-          <t>クレジット：終了座標</t>
+          <t>クレジット：イラスト変化時間</t>
         </is>
       </c>
       <c r="C364" t="inlineStr">
@@ -10322,13 +10322,13 @@
         </is>
       </c>
       <c r="D364" t="n">
-        <v>520</v>
+        <v>3</v>
       </c>
       <c r="E364" t="n">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="F364" t="n">
-        <v>510</v>
+        <v>5</v>
       </c>
       <c r="G364" t="n">
         <v>0.1</v>
@@ -10339,7 +10339,7 @@
       <c r="A365" t="inlineStr"/>
       <c r="B365" t="inlineStr">
         <is>
-          <t>クレジット：FO前待機</t>
+          <t>クレジット：終了座標</t>
         </is>
       </c>
       <c r="C365" t="inlineStr">
@@ -10348,13 +10348,13 @@
         </is>
       </c>
       <c r="D365" t="n">
-        <v>1</v>
+        <v>520</v>
       </c>
       <c r="E365" t="n">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="F365" t="n">
-        <v>20</v>
+        <v>510</v>
       </c>
       <c r="G365" t="n">
         <v>0.1</v>
@@ -10365,7 +10365,7 @@
       <c r="A366" t="inlineStr"/>
       <c r="B366" t="inlineStr">
         <is>
-          <t>クレジット：FO時間</t>
+          <t>クレジット：FO前待機</t>
         </is>
       </c>
       <c r="C366" t="inlineStr">
@@ -10374,7 +10374,7 @@
         </is>
       </c>
       <c r="D366" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E366" t="n">
         <v>0</v>
@@ -10391,7 +10391,7 @@
       <c r="A367" t="inlineStr"/>
       <c r="B367" t="inlineStr">
         <is>
-          <t>クレジット：FO後待機時間</t>
+          <t>クレジット：FO時間</t>
         </is>
       </c>
       <c r="C367" t="inlineStr">
@@ -10400,7 +10400,7 @@
         </is>
       </c>
       <c r="D367" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E367" t="n">
         <v>0</v>
@@ -10417,7 +10417,7 @@
       <c r="A368" t="inlineStr"/>
       <c r="B368" t="inlineStr">
         <is>
-          <t>一枚絵：FI時間</t>
+          <t>クレジット：FO後待機時間</t>
         </is>
       </c>
       <c r="C368" t="inlineStr">
@@ -10426,13 +10426,13 @@
         </is>
       </c>
       <c r="D368" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E368" t="n">
         <v>0</v>
       </c>
       <c r="F368" t="n">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="G368" t="n">
         <v>0.1</v>
@@ -10443,7 +10443,7 @@
       <c r="A369" t="inlineStr"/>
       <c r="B369" t="inlineStr">
         <is>
-          <t>一枚絵：待機時間</t>
+          <t>一枚絵：FI時間</t>
         </is>
       </c>
       <c r="C369" t="inlineStr">
@@ -10452,7 +10452,7 @@
         </is>
       </c>
       <c r="D369" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E369" t="n">
         <v>0</v>
@@ -10469,7 +10469,7 @@
       <c r="A370" t="inlineStr"/>
       <c r="B370" t="inlineStr">
         <is>
-          <t>一枚絵：FO時間</t>
+          <t>一枚絵：待機時間</t>
         </is>
       </c>
       <c r="C370" t="inlineStr">
@@ -10484,7 +10484,7 @@
         <v>0</v>
       </c>
       <c r="F370" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G370" t="n">
         <v>0.1</v>
@@ -10495,7 +10495,7 @@
       <c r="A371" t="inlineStr"/>
       <c r="B371" t="inlineStr">
         <is>
-          <t>一枚絵：FO後時間</t>
+          <t>一枚絵：FO時間</t>
         </is>
       </c>
       <c r="C371" t="inlineStr">
@@ -10504,13 +10504,13 @@
         </is>
       </c>
       <c r="D371" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E371" t="n">
         <v>0</v>
       </c>
       <c r="F371" t="n">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="G371" t="n">
         <v>0.1</v>
@@ -10521,12 +10521,12 @@
       <c r="A372" t="inlineStr"/>
       <c r="B372" t="inlineStr">
         <is>
-          <t>&lt;エンディング</t>
+          <t>一枚絵：FO後時間</t>
         </is>
       </c>
       <c r="C372" t="inlineStr">
         <is>
-          <t>Ending</t>
+          <t>Credit：Time Setting</t>
         </is>
       </c>
       <c r="D372" t="n">
@@ -10536,10 +10536,10 @@
         <v>0</v>
       </c>
       <c r="F372" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G372" t="n">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="H372" t="inlineStr"/>
     </row>
@@ -10547,12 +10547,12 @@
       <c r="A373" t="inlineStr"/>
       <c r="B373" t="inlineStr">
         <is>
-          <t>&gt;自動プレイ</t>
+          <t>&lt;エンディング</t>
         </is>
       </c>
       <c r="C373" t="inlineStr">
         <is>
-          <t>AutoPlay</t>
+          <t>Ending</t>
         </is>
       </c>
       <c r="D373" t="n">
@@ -10573,16 +10573,16 @@
       <c r="A374" t="inlineStr"/>
       <c r="B374" t="inlineStr">
         <is>
-          <t>自動プレイモニタ</t>
+          <t>&gt;自動プレイ</t>
         </is>
       </c>
       <c r="C374" t="inlineStr">
         <is>
-          <t>AutoPlayMonitor</t>
+          <t>AutoPlay</t>
         </is>
       </c>
       <c r="D374" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E374" t="n">
         <v>0</v>
@@ -10593,22 +10593,18 @@
       <c r="G374" t="n">
         <v>1</v>
       </c>
-      <c r="H374" t="inlineStr">
-        <is>
-          <t>OFF,ON</t>
-        </is>
-      </c>
+      <c r="H374" t="inlineStr"/>
     </row>
     <row r="375">
       <c r="A375" t="inlineStr"/>
       <c r="B375" t="inlineStr">
         <is>
-          <t>自動プレイ強化</t>
+          <t>自動プレイモニタ</t>
         </is>
       </c>
       <c r="C375" t="inlineStr">
         <is>
-          <t>AutoPlayDoping</t>
+          <t>AutoPlayMonitor</t>
         </is>
       </c>
       <c r="D375" t="n">
@@ -10633,68 +10629,68 @@
       <c r="A376" t="inlineStr"/>
       <c r="B376" t="inlineStr">
         <is>
-          <t>自動プレイターン</t>
+          <t>自動プレイ強化</t>
         </is>
       </c>
       <c r="C376" t="inlineStr">
         <is>
-          <t>AutoPlayTurn</t>
+          <t>AutoPlayDoping</t>
         </is>
       </c>
       <c r="D376" t="n">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="E376" t="n">
         <v>0</v>
       </c>
       <c r="F376" t="n">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="G376" t="n">
         <v>1</v>
       </c>
-      <c r="H376" t="inlineStr"/>
+      <c r="H376" t="inlineStr">
+        <is>
+          <t>OFF,ON</t>
+        </is>
+      </c>
     </row>
     <row r="377">
       <c r="A377" t="inlineStr"/>
       <c r="B377" t="inlineStr">
         <is>
-          <t>自動プレイ不死身</t>
+          <t>自動プレイターン</t>
         </is>
       </c>
       <c r="C377" t="inlineStr">
         <is>
-          <t>AutoPlayImmortal</t>
+          <t>AutoPlayTurn</t>
         </is>
       </c>
       <c r="D377" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="E377" t="n">
         <v>0</v>
       </c>
       <c r="F377" t="n">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="G377" t="n">
         <v>1</v>
       </c>
-      <c r="H377" t="inlineStr">
-        <is>
-          <t>OFF,自軍,全軍</t>
-        </is>
-      </c>
+      <c r="H377" t="inlineStr"/>
     </row>
     <row r="378">
       <c r="A378" t="inlineStr"/>
       <c r="B378" t="inlineStr">
         <is>
-          <t>自動プレイ性別</t>
+          <t>自動プレイ不死身</t>
         </is>
       </c>
       <c r="C378" t="inlineStr">
         <is>
-          <t>AutoPlayGender</t>
+          <t>AutoPlayImmortal</t>
         </is>
       </c>
       <c r="D378" t="n">
@@ -10711,7 +10707,7 @@
       </c>
       <c r="H378" t="inlineStr">
         <is>
-          <t>ランダム,男性,女性</t>
+          <t>OFF,自軍,全軍</t>
         </is>
       </c>
     </row>
@@ -10719,16 +10715,16 @@
       <c r="A379" t="inlineStr"/>
       <c r="B379" t="inlineStr">
         <is>
-          <t>自動プレイ難易度</t>
+          <t>自動プレイ性別</t>
         </is>
       </c>
       <c r="C379" t="inlineStr">
         <is>
-          <t>AutoPlayDifficulty</t>
+          <t>AutoPlayGender</t>
         </is>
       </c>
       <c r="D379" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E379" t="n">
         <v>0</v>
@@ -10741,7 +10737,7 @@
       </c>
       <c r="H379" t="inlineStr">
         <is>
-          <t>ランダム,ノーマル,ハード,ルナティック</t>
+          <t>ランダム,男性,女性</t>
         </is>
       </c>
     </row>
@@ -10749,16 +10745,16 @@
       <c r="A380" t="inlineStr"/>
       <c r="B380" t="inlineStr">
         <is>
-          <t>自動プレイモード</t>
+          <t>自動プレイ難易度</t>
         </is>
       </c>
       <c r="C380" t="inlineStr">
         <is>
-          <t>AutoPlayMode</t>
+          <t>AutoPlayDifficulty</t>
         </is>
       </c>
       <c r="D380" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E380" t="n">
         <v>0</v>
@@ -10771,7 +10767,7 @@
       </c>
       <c r="H380" t="inlineStr">
         <is>
-          <t>ランダム,カジュアル,クラシック</t>
+          <t>ランダム,ノーマル,ハード,ルナティック</t>
         </is>
       </c>
     </row>
@@ -10779,12 +10775,12 @@
       <c r="A381" t="inlineStr"/>
       <c r="B381" t="inlineStr">
         <is>
-          <t>自動プレイバトル</t>
+          <t>自動プレイモード</t>
         </is>
       </c>
       <c r="C381" t="inlineStr">
         <is>
-          <t>AutoPlayBattle</t>
+          <t>AutoPlayMode</t>
         </is>
       </c>
       <c r="D381" t="n">
@@ -10801,7 +10797,7 @@
       </c>
       <c r="H381" t="inlineStr">
         <is>
-          <t>OFF,ON</t>
+          <t>ランダム,カジュアル,クラシック</t>
         </is>
       </c>
     </row>
@@ -10809,12 +10805,12 @@
       <c r="A382" t="inlineStr"/>
       <c r="B382" t="inlineStr">
         <is>
-          <t>自動プレイ高速化</t>
+          <t>自動プレイバトル</t>
         </is>
       </c>
       <c r="C382" t="inlineStr">
         <is>
-          <t>AutoPlaySpeedUp</t>
+          <t>AutoPlayBattle</t>
         </is>
       </c>
       <c r="D382" t="n">
@@ -10839,16 +10835,16 @@
       <c r="A383" t="inlineStr"/>
       <c r="B383" t="inlineStr">
         <is>
-          <t>自動プレイデモスキップ</t>
+          <t>自動プレイ高速化</t>
         </is>
       </c>
       <c r="C383" t="inlineStr">
         <is>
-          <t>AutoPlayDemoSkip</t>
+          <t>AutoPlaySpeedUp</t>
         </is>
       </c>
       <c r="D383" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E383" t="n">
         <v>0</v>
@@ -10869,12 +10865,12 @@
       <c r="A384" t="inlineStr"/>
       <c r="B384" t="inlineStr">
         <is>
-          <t>自動プレイバトルスキップ</t>
+          <t>自動プレイデモスキップ</t>
         </is>
       </c>
       <c r="C384" t="inlineStr">
         <is>
-          <t>AutoPlayBattleSkip</t>
+          <t>AutoPlayDemoSkip</t>
         </is>
       </c>
       <c r="D384" t="n">
@@ -10899,27 +10895,57 @@
       <c r="A385" t="inlineStr"/>
       <c r="B385" t="inlineStr">
         <is>
+          <t>自動プレイバトルスキップ</t>
+        </is>
+      </c>
+      <c r="C385" t="inlineStr">
+        <is>
+          <t>AutoPlayBattleSkip</t>
+        </is>
+      </c>
+      <c r="D385" t="n">
+        <v>0</v>
+      </c>
+      <c r="E385" t="n">
+        <v>0</v>
+      </c>
+      <c r="F385" t="n">
+        <v>0</v>
+      </c>
+      <c r="G385" t="n">
+        <v>1</v>
+      </c>
+      <c r="H385" t="inlineStr">
+        <is>
+          <t>OFF,ON</t>
+        </is>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="inlineStr"/>
+      <c r="B386" t="inlineStr">
+        <is>
           <t>&lt;自動プレイ</t>
         </is>
       </c>
-      <c r="C385" t="inlineStr">
+      <c r="C386" t="inlineStr">
         <is>
           <t>AutoPlay</t>
         </is>
       </c>
-      <c r="D385" t="n">
-        <v>0</v>
-      </c>
-      <c r="E385" t="n">
-        <v>0</v>
-      </c>
-      <c r="F385" t="n">
-        <v>0</v>
-      </c>
-      <c r="G385" t="n">
-        <v>1</v>
-      </c>
-      <c r="H385" t="inlineStr"/>
+      <c r="D386" t="n">
+        <v>0</v>
+      </c>
+      <c r="E386" t="n">
+        <v>0</v>
+      </c>
+      <c r="F386" t="n">
+        <v>0</v>
+      </c>
+      <c r="G386" t="n">
+        <v>1</v>
+      </c>
+      <c r="H386" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
